--- a/hours.xlsx
+++ b/hours.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="hours" sheetId="1" r:id="rId1"/>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I65"/>
+  <dimension ref="B2:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>55.733333333333306</v>
+        <v>57.233333333333306</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -645,7 +645,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E65" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E66" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -802,9 +802,9 @@
       <c r="G17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="4">
         <f>SUM(E62:E69)</f>
-        <v>3.0833333333333317</v>
+        <v>4.5833333333333321</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1480,6 +1480,18 @@
       <c r="E65" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5">
+      <c r="C66" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I66"/>
+  <dimension ref="B2:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>57.233333333333306</v>
+        <v>57.733333333333306</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -645,7 +645,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E66" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E67" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -804,7 +804,7 @@
       </c>
       <c r="H17" s="4">
         <f>SUM(E62:E69)</f>
-        <v>4.5833333333333321</v>
+        <v>5.083333333333333</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1470,7 +1470,7 @@
         <v>1.1666666666666652</v>
       </c>
     </row>
-    <row r="65" spans="3:5">
+    <row r="65" spans="2:5">
       <c r="C65" s="2">
         <v>0.6875</v>
       </c>
@@ -1482,16 +1482,31 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="3:5">
+    <row r="66" spans="2:5">
       <c r="C66" s="2">
         <v>0.91666666666666663</v>
       </c>
       <c r="D66" s="2">
-        <v>0.97916666666666663</v>
+        <v>0.99305555555555547</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.8333333333333321</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="5">
+        <v>42850</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666874</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Jackie's 4920 Hours - Baker/ Nicole research</t>
   </si>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I67"/>
+  <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>57.733333333333306</v>
+        <v>61.399999999999977</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -645,7 +645,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E67" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E71" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -803,8 +803,8 @@
         <v>27</v>
       </c>
       <c r="H17" s="4">
-        <f>SUM(E62:E69)</f>
-        <v>5.083333333333333</v>
+        <f>SUM(E62:E75)</f>
+        <v>8.7500000000000036</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -1470,7 +1470,7 @@
         <v>1.1666666666666652</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:6">
       <c r="C65" s="2">
         <v>0.6875</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:6">
       <c r="C66" s="2">
         <v>0.91666666666666663</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>1.8333333333333321</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:6">
       <c r="B67" s="5">
         <v>42850</v>
       </c>
@@ -1507,6 +1507,63 @@
       <c r="E67" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666874</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="5">
+        <v>42851</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="C69" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333659</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="C70" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="5">
+        <v>42852</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333321</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Jackie's 4920 Hours - Baker/ Nicole research</t>
   </si>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I71"/>
+  <dimension ref="B2:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -645,7 +645,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E71" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E72" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1563,6 +1563,24 @@
         <v>1.0833333333333321</v>
       </c>
       <c r="F71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="5">
+        <v>42853</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333126</v>
+      </c>
+      <c r="F72" t="s">
         <v>17</v>
       </c>
     </row>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Jackie's 4920 Hours - Baker/ Nicole research</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I72"/>
+  <dimension ref="B2:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -546,7 +549,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>61.399999999999977</v>
+        <v>68.483333333333306</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -645,7 +648,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E72" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E74" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -803,8 +806,8 @@
         <v>27</v>
       </c>
       <c r="H17" s="4">
-        <f>SUM(E62:E75)</f>
-        <v>8.7500000000000036</v>
+        <f>SUM(E62:E72)</f>
+        <v>9.3333333333333357</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -821,6 +824,13 @@
         <f t="shared" si="0"/>
         <v>1.9166666666666652</v>
       </c>
+      <c r="G18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="4">
+        <f>SUM(E73:E79)</f>
+        <v>6.4999999999999982</v>
+      </c>
     </row>
     <row r="19" spans="2:8">
       <c r="C19" s="2">
@@ -1581,6 +1591,39 @@
         <v>0.58333333333333126</v>
       </c>
       <c r="F72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="5">
+        <v>42856</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="0"/>
+        <v>4.2499999999999982</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="C74" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="F74" t="s">
         <v>17</v>
       </c>
     </row>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I74"/>
+  <dimension ref="B2:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>68.483333333333306</v>
+        <v>69.316666666666634</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -648,7 +648,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E74" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E75" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -829,7 +829,7 @@
       </c>
       <c r="H18" s="4">
         <f>SUM(E73:E79)</f>
-        <v>6.4999999999999982</v>
+        <v>7.3333333333333313</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1625,6 +1625,21 @@
       </c>
       <c r="F74" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="5">
+        <v>42857</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333304</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Jackie's 4920 Hours - Baker/ Nicole research</t>
   </si>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I75"/>
+  <dimension ref="B2:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>69.316666666666634</v>
+        <v>73.399999999999963</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -648,7 +648,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E75" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E78" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -828,8 +828,8 @@
         <v>28</v>
       </c>
       <c r="H18" s="4">
-        <f>SUM(E73:E79)</f>
-        <v>7.3333333333333313</v>
+        <f>SUM(E73:E87)</f>
+        <v>11.416666666666664</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1640,6 +1640,48 @@
       <c r="E75" s="4">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="C76" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333393</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="C77" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333321</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="C78" s="2">
+        <v>0.90625</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666874</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Jackie's 4920 Hours - Baker/ Nicole research</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Avg. Week</t>
   </si>
 </sst>
 </file>
@@ -200,6 +203,218 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>hours!$G$6:$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Week 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Week 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Week 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Week 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Week 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Week 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Week 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Week 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Week 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hours!$H$6:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.066666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.083333333333332</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.083333333333326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2103339720"/>
+        <c:axId val="2103351096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2103339720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103351096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2103351096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103339720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>465668</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59268</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I78"/>
+  <dimension ref="B2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -549,9 +764,15 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>73.399999999999963</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>80.212820512820485</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4">
+        <f>AVERAGE(H6:H18)</f>
+        <v>5.7294871794871796</v>
+      </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="3" t="s">
@@ -648,7 +869,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E78" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E79" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -829,7 +1050,7 @@
       </c>
       <c r="H18" s="4">
         <f>SUM(E73:E87)</f>
-        <v>11.416666666666664</v>
+        <v>12.500000000000002</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1682,6 +1903,18 @@
       </c>
       <c r="F78" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="C79" s="2">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.97569444444444453</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333375</v>
       </c>
     </row>
   </sheetData>
@@ -1690,6 +1923,7 @@
   <ignoredErrors>
     <ignoredError sqref="C4" emptyCellReference="1"/>
   </ignoredErrors>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -321,7 +321,7 @@
                   <c:v>9.333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.5</c:v>
+                  <c:v>13.41666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -336,11 +336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2103339720"/>
-        <c:axId val="2103351096"/>
+        <c:axId val="2099832952"/>
+        <c:axId val="2099835912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2103339720"/>
+        <c:axId val="2099832952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,12 +349,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103351096"/>
+        <c:crossAx val="2099835912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103351096"/>
+        <c:axId val="2099835912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103339720"/>
+        <c:crossAx val="2099832952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I79"/>
+  <dimension ref="B2:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H18"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -764,14 +764,14 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>80.212820512820485</v>
+        <v>81.199999999999974</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4">
         <f>AVERAGE(H6:H18)</f>
-        <v>5.7294871794871796</v>
+        <v>5.7999999999999989</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -869,7 +869,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E79" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E80" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="H18" s="4">
         <f>SUM(E73:E87)</f>
-        <v>12.500000000000002</v>
+        <v>13.41666666666667</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1915,6 +1915,21 @@
       <c r="E79" s="4">
         <f t="shared" si="0"/>
         <v>1.0833333333333375</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="5">
+        <v>42858</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666741</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Jackie's 4920 Hours - Baker/ Nicole research</t>
   </si>
@@ -321,7 +321,7 @@
                   <c:v>9.333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.41666666666667</c:v>
+                  <c:v>17.25000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -336,11 +336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099832952"/>
-        <c:axId val="2099835912"/>
+        <c:axId val="2115182520"/>
+        <c:axId val="2115179976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099832952"/>
+        <c:axId val="2115182520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,12 +349,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099835912"/>
+        <c:crossAx val="2115179976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099835912"/>
+        <c:axId val="2115179976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099832952"/>
+        <c:crossAx val="2115182520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I80"/>
+  <dimension ref="B2:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -764,14 +764,14 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>81.199999999999974</v>
+        <v>85.328205128205084</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4">
         <f>AVERAGE(H6:H18)</f>
-        <v>5.7999999999999989</v>
+        <v>6.0948717948717945</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -869,7 +869,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E80" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E83" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="H18" s="4">
         <f>SUM(E73:E87)</f>
-        <v>13.41666666666667</v>
+        <v>17.250000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1925,11 +1925,56 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="D80" s="2">
-        <v>0.4513888888888889</v>
+        <v>0.4375</v>
       </c>
       <c r="E80" s="4">
         <f t="shared" si="0"/>
-        <v>0.91666666666666741</v>
+        <v>0.58333333333333393</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333348</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" s="2">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333339</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -321,7 +321,7 @@
                   <c:v>9.333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.25000000000001</c:v>
+                  <c:v>20.16666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I83"/>
+  <dimension ref="B2:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -764,14 +764,14 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>85.328205128205084</v>
+        <v>88.469230769230734</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4">
         <f>AVERAGE(H6:H18)</f>
-        <v>6.0948717948717945</v>
+        <v>6.3192307692307699</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -869,7 +869,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E83" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E85" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="H18" s="4">
         <f>SUM(E73:E87)</f>
-        <v>17.250000000000007</v>
+        <v>20.166666666666675</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1932,7 +1932,7 @@
         <v>0.58333333333333393</v>
       </c>
     </row>
-    <row r="81" spans="3:6">
+    <row r="81" spans="2:6">
       <c r="C81" s="2">
         <v>0.57986111111111105</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="3:6">
+    <row r="82" spans="2:6">
       <c r="C82" s="2">
         <v>0.72916666666666663</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="3:6">
+    <row r="83" spans="2:6">
       <c r="C83" s="2">
         <v>0.87847222222222221</v>
       </c>
@@ -1975,6 +1975,36 @@
       </c>
       <c r="F83" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="5">
+        <v>42859</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999991</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="5">
+        <v>42860</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666652</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13240" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="0" windowWidth="25600" windowHeight="13240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="hours" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
                   <c:v>9.333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.16666666666667</c:v>
+                  <c:v>22.00000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I85"/>
+  <dimension ref="B2:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -764,14 +764,14 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>88.469230769230734</v>
+        <v>90.443589743589698</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4">
         <f>AVERAGE(H6:H18)</f>
-        <v>6.3192307692307699</v>
+        <v>6.4602564102564104</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -869,7 +869,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E85" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E86" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="H18" s="4">
         <f>SUM(E73:E87)</f>
-        <v>20.166666666666675</v>
+        <v>22.000000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2005,6 +2005,18 @@
       <c r="E85" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666652</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="C86" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8333333333333321</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -336,11 +336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115182520"/>
-        <c:axId val="2115179976"/>
+        <c:axId val="2107568296"/>
+        <c:axId val="2107571368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115182520"/>
+        <c:axId val="2107568296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,12 +349,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115179976"/>
+        <c:crossAx val="2107571368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115179976"/>
+        <c:axId val="2107571368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115182520"/>
+        <c:crossAx val="2107568296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -739,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I86"/>
+  <dimension ref="B2:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2017,6 +2017,14 @@
       <c r="E86" s="4">
         <f t="shared" si="0"/>
         <v>1.8333333333333321</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="5">
+        <v>42861</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.52083333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Jackie's 4920 Hours - Baker/ Nicole research</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Avg. Week</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
                   <c:v>9.333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.00000000000001</c:v>
+                  <c:v>28.00000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -336,11 +339,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107568296"/>
-        <c:axId val="2107571368"/>
+        <c:axId val="2122167032"/>
+        <c:axId val="2122170104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107568296"/>
+        <c:axId val="2122167032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,12 +352,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107571368"/>
+        <c:crossAx val="2122170104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107571368"/>
+        <c:axId val="2122170104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -365,7 +368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107568296"/>
+        <c:crossAx val="2122167032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I87"/>
+  <dimension ref="B2:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -764,14 +767,14 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>90.443589743589698</v>
+        <v>96.905128205128165</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="4">
         <f>AVERAGE(H6:H18)</f>
-        <v>6.4602564102564104</v>
+        <v>6.9217948717948721</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -869,7 +872,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E86" si="0">(D10-C10)*24</f>
+        <f t="shared" ref="E10:E90" si="0">(D10-C10)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1049,8 +1052,8 @@
         <v>28</v>
       </c>
       <c r="H18" s="4">
-        <f>SUM(E73:E87)</f>
-        <v>22.000000000000007</v>
+        <f>SUM(E73:E90)</f>
+        <v>28.000000000000007</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -1064,6 +1067,13 @@
         <f t="shared" si="0"/>
         <v>1.2499999999999982</v>
       </c>
+      <c r="G19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <f>SUM(E91:E97)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="5">
@@ -2025,6 +2035,57 @@
       </c>
       <c r="C87" s="2">
         <v>0.52083333333333337</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999991</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="C88" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666661</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="C89" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999982</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="C90" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="5">
+        <v>42863</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.76736111111111116</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
-    <t>Jackie's 4920 Hours - Baker/ Nicole research</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Jackie's 4920 Hours - Baker/ Wiles research</t>
   </si>
 </sst>
 </file>
@@ -173,8 +173,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -192,15 +196,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -236,9 +244,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>hours!$G$6:$G$18</c:f>
+              <c:f>hours!$G$7:$G$20</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Week 1</c:v>
                 </c:pt>
@@ -277,16 +285,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Week 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Week 14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>hours!$H$6:$H$18</c:f>
+              <c:f>hours!$H$7:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>7.066666666666667</c:v>
                 </c:pt>
@@ -325,6 +336,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>28.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.749999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -339,11 +353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122167032"/>
-        <c:axId val="2122170104"/>
+        <c:axId val="2109226456"/>
+        <c:axId val="2109229480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122167032"/>
+        <c:axId val="2109226456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,12 +366,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122170104"/>
+        <c:crossAx val="2109229480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122170104"/>
+        <c:axId val="2109229480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122167032"/>
+        <c:crossAx val="2109226456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -391,13 +405,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>465668</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>80434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>59268</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>97367</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -742,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I91"/>
+  <dimension ref="B2:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -755,7 +769,7 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -763,1329 +777,1366 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>96.905128205128165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4">
-        <f>AVERAGE(H6:H18)</f>
-        <v>6.9217948717948721</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="3" t="s">
+        <v>91.733333333333292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <f>AVERAGE(H7:H20)</f>
+        <v>6.5523809523809522</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
-        <f>SUM(E7:E14)</f>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM(E8:E15)</f>
         <v>7.0666666666666673</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="1">
+    <row r="8" spans="2:9">
+      <c r="B8" s="1">
         <v>42772</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>0.46319444444444446</v>
-      </c>
-      <c r="E7" s="4">
-        <f>(D7-C7)*24</f>
-        <v>0.61666666666666714</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4">
-        <f>SUM(E15:E20)</f>
-        <v>6.1666666666666687</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="C8" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.52569444444444446</v>
       </c>
       <c r="E8" s="4">
         <f>(D8-C8)*24</f>
-        <v>0.95000000000000062</v>
+        <v>0.61666666666666714</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="4">
-        <f>SUM(E21:E24)</f>
+        <f>SUM(E16:E21)</f>
         <v>6.1666666666666687</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="5">
-        <v>42773</v>
-      </c>
       <c r="C9" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="D9" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.52569444444444446</v>
       </c>
       <c r="E9" s="4">
         <f>(D9-C9)*24</f>
-        <v>0.16666666666666607</v>
+        <v>0.95000000000000062</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H9" s="4">
-        <f>SUM(E25:E31)</f>
-        <v>6.8333333333333357</v>
+        <f>SUM(E22:E25)</f>
+        <v>6.1666666666666687</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="5">
-        <v>42774</v>
+        <v>42773</v>
       </c>
       <c r="C10" s="2">
-        <v>0.75</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="D10" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" ref="E10:E90" si="0">(D10-C10)*24</f>
-        <v>0.50000000000000089</v>
+        <f>(D10-C10)*24</f>
+        <v>0.16666666666666607</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H10" s="4">
-        <f>SUM(E32:E34)</f>
-        <v>1.7499999999999978</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
+        <f>SUM(E26:E32)</f>
+        <v>6.8333333333333357</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="5">
-        <v>42775</v>
+        <v>42774</v>
       </c>
       <c r="C11" s="2">
-        <v>0.89236111111111116</v>
+        <v>0.75</v>
       </c>
       <c r="D11" s="2">
-        <v>0.93402777777777779</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
+        <f t="shared" ref="E11:E94" si="0">(D11-C11)*24</f>
+        <v>0.50000000000000089</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="4">
-        <f>SUM(E35:E39)</f>
-        <v>6.7499999999999973</v>
+        <f>SUM(E33:E35)</f>
+        <v>1.7499999999999978</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="5">
+        <v>42775</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM(E36:E40)</f>
+        <v>6.7499999999999973</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="5">
         <v>42778</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>0.59375</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="4">
-        <f>SUM(E40:E44)</f>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM(E41:E45)</f>
         <v>4.0833333333333321</v>
       </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="C13" s="2">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5833333333333321</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" t="s">
         <v>19</v>
-      </c>
-      <c r="H13" s="4">
-        <f>SUM(E45:E51)</f>
-        <v>4.0833333333333268</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5833333333333321</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM(E46:E52)</f>
+        <v>4.0833333333333268</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="C15" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>0.9375</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>0.50000000000000089</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4">
+        <f>SUM(E53)</f>
+        <v>0.91666666666666607</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="5">
+        <v>42780</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000178</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="4">
-        <f>SUM(E52)</f>
-        <v>0.91666666666666607</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5">
-        <v>42780</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25000000000000178</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="4">
-        <f>SUM(E53:E56)</f>
+      <c r="H16" s="4">
+        <f>SUM(E54:E57)</f>
         <v>2.7499999999999982</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="C16" s="2">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333659</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="4">
-        <f>SUM(E57:E61)</f>
-        <v>6.083333333333333</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="C17" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333659</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="4">
+        <f>SUM(E58:E62)</f>
+        <v>6.083333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" s="2">
         <v>0.90277777777777779</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>0.94791666666666663</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>1.0833333333333321</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4">
+        <f>SUM(E63:E73)</f>
+        <v>9.3333333333333357</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5">
+        <v>42781</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666652</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="4">
-        <f>SUM(E62:E72)</f>
-        <v>9.3333333333333357</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="5">
-        <v>42781</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.51736111111111105</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9166666666666652</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="4">
-        <f>SUM(E73:E90)</f>
+      <c r="H19" s="4">
+        <f>SUM(E74:E91)</f>
         <v>28.000000000000007</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="C19" s="2">
+    <row r="20" spans="2:8">
+      <c r="C20" s="2">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
         <v>0.77430555555555547</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>1.2499999999999982</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19">
-        <f>SUM(E91:E97)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="5">
-        <v>42782</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.66319444444444442</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0833333333333348</v>
+      <c r="G20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="4">
+        <f>SUM(E92:E98)</f>
+        <v>1.749999999999998</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="5">
-        <v>42786</v>
+        <v>42782</v>
       </c>
       <c r="C21" s="2">
-        <v>0.65277777777777779</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="D21" s="2">
-        <v>0.68402777777777779</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.0833333333333348</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="5">
-        <v>42787</v>
+        <v>42786</v>
       </c>
       <c r="C22" s="2">
-        <v>0.66319444444444442</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D22" s="2">
-        <v>0.76041666666666663</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="0"/>
-        <v>2.333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="5">
-        <v>42790</v>
+        <v>42787</v>
       </c>
       <c r="C23" s="2">
-        <v>0.36458333333333331</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="D23" s="2">
-        <v>0.37847222222222227</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333481</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="5">
-        <v>42792</v>
+        <v>42790</v>
       </c>
       <c r="C24" s="2">
-        <v>0.86111111111111116</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D24" s="2">
-        <v>0.97569444444444453</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>2.7500000000000009</v>
+        <v>0.33333333333333481</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="5">
-        <v>42793</v>
+        <v>42792</v>
       </c>
       <c r="C25" s="2">
-        <v>0.65625</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="D25" s="2">
-        <v>0.75</v>
+        <v>0.97569444444444453</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>2.7500000000000009</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="5">
-        <v>42794</v>
+        <v>42793</v>
       </c>
       <c r="C26" s="2">
-        <v>0.49652777777777773</v>
+        <v>0.65625</v>
       </c>
       <c r="D26" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.75</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666918</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="5">
+        <v>42794</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666918</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="5">
         <v>42795</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>0.4826388888888889</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>1.0833333333333335</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="C28" s="2">
+    <row r="29" spans="2:8">
+      <c r="C29" s="2">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>0.71875</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333215</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="5">
+    <row r="30" spans="2:8">
+      <c r="B30" s="5">
         <v>42796</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C30" s="2">
         <v>0.53819444444444442</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="2">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333481</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
-      <c r="C30" s="2">
+    <row r="31" spans="2:8">
+      <c r="C31" s="2">
         <v>0.625</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="2">
         <v>0.66319444444444442</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>0.91666666666666607</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="5">
-        <v>42797</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="E31" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="5">
+        <v>42797</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="5">
         <v>42800</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C33" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>0.66666666666666563</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="C33" s="2">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333215</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="C34" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="C35" s="2">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="5">
+    <row r="36" spans="2:6">
+      <c r="B36" s="5">
         <v>42808</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C36" s="2">
         <v>0.71527777777777779</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>0.78472222222222221</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>1.6666666666666661</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="C36" s="2">
+    <row r="37" spans="2:6">
+      <c r="C37" s="2">
         <v>0.82986111111111116</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D37" s="2">
         <v>0.88888888888888884</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <f t="shared" si="0"/>
         <v>1.4166666666666643</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="5">
-        <v>42809</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="E37" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1666666666666679</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="5">
-        <v>42810</v>
+        <v>42809</v>
       </c>
       <c r="C38" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D38" s="2">
-        <v>0.6875</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
+        <v>1.1666666666666679</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="5">
-        <v>42812</v>
+        <v>42810</v>
       </c>
       <c r="C39" s="2">
-        <v>0.59722222222222221</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D39" s="2">
-        <v>0.65972222222222221</v>
+        <v>0.6875</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="5">
+        <v>42812</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="5">
         <v>42814</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C41" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D41" s="2">
         <v>0.46527777777777773</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666607</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="C41" s="2">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="E41" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7500000000000018</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="C42" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000018</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="C43" s="2">
         <v>0.59375</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D43" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <f t="shared" si="0"/>
         <v>0.24999999999999911</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="5">
+    <row r="44" spans="2:6">
+      <c r="B44" s="5">
         <v>42820</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C44" s="2">
         <v>0.8125</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D44" s="2">
         <v>0.87847222222222221</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <f t="shared" si="0"/>
         <v>1.583333333333333</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
-      <c r="C44" s="2">
+    <row r="45" spans="2:6">
+      <c r="C45" s="2">
         <v>0.89236111111111116</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D45" s="2">
         <v>0.90625</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333215</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="5">
+    <row r="46" spans="2:6">
+      <c r="B46" s="5">
         <v>42822</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C46" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D46" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <f t="shared" si="0"/>
         <v>0.49999999999999822</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="C46" s="2">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.71180555555555547</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4999999999999973</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="C47" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4999999999999973</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="C48" s="2">
         <v>0.94097222222222221</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D48" s="2">
         <v>0.96180555555555547</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <f t="shared" si="0"/>
         <v>0.49999999999999822</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="5">
-        <v>42823</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="E48" s="4">
-        <f t="shared" si="0"/>
-        <v>0.25000000000000178</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="5">
+        <v>42823</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000178</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="5">
         <v>42824</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C50" s="2">
         <v>0.52430555555555558</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D50" s="2">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="4">
         <f t="shared" si="0"/>
         <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="C50" s="2">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.74305555555555547</v>
-      </c>
-      <c r="E50" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666341</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="C51" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666341</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="C52" s="2">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D52" s="2">
         <v>0.78472222222222221</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <f t="shared" si="0"/>
         <v>0.50000000000000089</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="5">
-        <v>42834</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0.99652777777777779</v>
-      </c>
-      <c r="E52" s="4">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666607</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="5">
+        <v>42834</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666607</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="5">
         <v>42835</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C54" s="2">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D54" s="2">
         <v>0.49652777777777773</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333126</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="C54" s="2">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5833333333333357</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="C55" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333357</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="C56" s="2">
         <v>0.625</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D56" s="2">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <f t="shared" si="0"/>
         <v>0.24999999999999911</v>
       </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="5">
-        <v>42836</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="E56" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333215</v>
+      <c r="F56" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="5">
-        <v>42845</v>
+        <v>42836</v>
       </c>
       <c r="C57" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="D57" s="2">
         <v>0.54861111111111105</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="5">
+        <v>42845</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
         <v>1.0833333333333321</v>
       </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="C58" s="2">
-        <v>0.73263888888888884</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666785</v>
+      <c r="F58" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="C59" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666785</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="C60" s="2">
         <v>0.85763888888888884</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D60" s="2">
         <v>0.96180555555555547</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <f t="shared" si="0"/>
         <v>2.4999999999999991</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="5">
+    <row r="61" spans="2:6">
+      <c r="B61" s="5">
         <v>42847</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D61" s="2">
         <v>0.6875</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <f t="shared" si="0"/>
         <v>1.416666666666667</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
-      <c r="C61" s="2">
+    <row r="62" spans="2:6">
+      <c r="C62" s="2">
         <v>0.87847222222222221</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D62" s="2">
         <v>0.90625</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="4">
         <f t="shared" si="0"/>
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="5">
+    <row r="63" spans="2:6">
+      <c r="B63" s="5">
         <v>42849</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D63" s="2">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E63" s="4">
         <f t="shared" si="0"/>
         <v>0.24999999999999911</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="C63" s="2">
-        <v>0.4548611111111111</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="E63" s="4">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666741</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="C64" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="D64" s="2">
-        <v>0.5625</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="0"/>
-        <v>1.1666666666666652</v>
+        <v>0.91666666666666741</v>
       </c>
     </row>
     <row r="65" spans="2:6">
       <c r="C65" s="2">
-        <v>0.6875</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="D65" s="2">
-        <v>0.71875</v>
+        <v>0.5625</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.1666666666666652</v>
       </c>
     </row>
     <row r="66" spans="2:6">
       <c r="C66" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="C67" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D67" s="2">
         <v>0.99305555555555547</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <f t="shared" si="0"/>
         <v>1.8333333333333321</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="5">
-        <v>42850</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.67013888888888884</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="E67" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666874</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="5">
+        <v>42850</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666874</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="5">
         <v>42851</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C69" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D69" s="2">
         <v>0.6875</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999999999911</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="C69" s="2">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="E69" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333659</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="C70" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333659</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="C71" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D71" s="2">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000000000018</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" s="5">
-        <v>42852</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="E71" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0833333333333321</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="5">
-        <v>42853</v>
+        <v>42852</v>
       </c>
       <c r="C72" s="2">
-        <v>0.875</v>
+        <v>0.80902777777777779</v>
       </c>
       <c r="D72" s="2">
-        <v>0.89930555555555547</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E72" s="4">
         <f t="shared" si="0"/>
-        <v>0.58333333333333126</v>
+        <v>1.0833333333333321</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="5">
+        <v>42853</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.89930555555555547</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333126</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="5">
         <v>42856</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C74" s="2">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D74" s="2">
         <v>0.67013888888888884</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="4">
         <f t="shared" si="0"/>
         <v>4.2499999999999982</v>
       </c>
-      <c r="F73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="C74" s="2">
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="C75" s="2">
         <v>0.73263888888888884</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D75" s="2">
         <v>0.82638888888888884</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E75" s="4">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="F74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" s="5">
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="5">
         <v>42857</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C76" s="2">
         <v>0.50347222222222221</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D76" s="2">
         <v>0.53819444444444442</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="C76" s="2">
-        <v>0.55902777777777779</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E76" s="4">
-        <f t="shared" si="0"/>
-        <v>0.58333333333333393</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="C77" s="2">
-        <v>0.76041666666666663</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="D77" s="2">
-        <v>0.89930555555555547</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" si="0"/>
-        <v>3.3333333333333321</v>
-      </c>
-      <c r="F77" t="s">
-        <v>17</v>
+        <v>0.58333333333333393</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="C78" s="2">
-        <v>0.90625</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D78" s="2">
-        <v>0.91319444444444453</v>
+        <v>0.89930555555555547</v>
       </c>
       <c r="E78" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666874</v>
+        <v>3.3333333333333321</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="C79" s="2">
+        <v>0.90625</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666874</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="C80" s="2">
         <v>0.93055555555555547</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D80" s="2">
         <v>0.97569444444444453</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="4">
         <f t="shared" si="0"/>
         <v>1.0833333333333375</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
-      <c r="B80" s="5">
+    <row r="81" spans="2:6">
+      <c r="B81" s="5">
         <v>42858</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>0.41319444444444442</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D81" s="2">
         <v>0.4375</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E81" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333393</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="C81" s="2">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="E81" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0833333333333348</v>
-      </c>
-      <c r="F81" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="82" spans="2:6">
       <c r="C82" s="2">
-        <v>0.72916666666666663</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D82" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="0"/>
-        <v>1.0000000000000018</v>
+        <v>1.0833333333333348</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="2:6">
       <c r="C83" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="C84" s="2">
         <v>0.87847222222222221</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D84" s="2">
         <v>0.96527777777777779</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <f t="shared" si="0"/>
         <v>2.0833333333333339</v>
       </c>
-      <c r="F83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="5">
-        <v>42859</v>
-      </c>
-      <c r="C84" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E84" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4999999999999991</v>
+      <c r="F84" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="5">
+        <v>42859</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999991</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="5">
         <v>42860</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D86" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666652</v>
       </c>
     </row>
-    <row r="86" spans="2:6">
-      <c r="C86" s="2">
+    <row r="87" spans="2:6">
+      <c r="C87" s="2">
         <v>0.625</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D87" s="2">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E87" s="4">
         <f t="shared" si="0"/>
         <v>1.8333333333333321</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="5">
+    <row r="88" spans="2:6">
+      <c r="B88" s="5">
         <v>42861</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C88" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D88" s="2">
         <v>0.59375</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="4">
         <f t="shared" si="0"/>
         <v>1.7499999999999991</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="C88" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="E88" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666661</v>
       </c>
     </row>
     <row r="89" spans="2:6">
       <c r="C89" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D89" s="2">
-        <v>0.82291666666666663</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="E89" s="4">
         <f t="shared" si="0"/>
-        <v>1.2499999999999982</v>
+        <v>1.6666666666666661</v>
       </c>
     </row>
     <row r="90" spans="2:6">
       <c r="C90" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2499999999999982</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="C91" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D91" s="2">
         <v>0.90972222222222221</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E91" s="4">
         <f t="shared" si="0"/>
         <v>1.3333333333333339</v>
       </c>
     </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="5">
+    <row r="92" spans="2:6">
+      <c r="B92" s="5">
         <v>42863</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C92" s="2">
         <v>0.76736111111111116</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="C93" s="2">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999911</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="5">
+        <v>42864</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2118,26 +2169,26 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -338,7 +338,7 @@
                   <c:v>28.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.749999999999998</c:v>
+                  <c:v>3.666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,11 +353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109226456"/>
-        <c:axId val="2109229480"/>
+        <c:axId val="-2132674568"/>
+        <c:axId val="-2132671544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109226456"/>
+        <c:axId val="-2132674568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,12 +366,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109229480"/>
+        <c:crossAx val="-2132671544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109229480"/>
+        <c:axId val="-2132671544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109226456"/>
+        <c:crossAx val="-2132674568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I94"/>
+  <dimension ref="B2:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>91.733333333333292</v>
+        <v>93.649999999999963</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -790,7 +790,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(H7:H20)</f>
-        <v>6.5523809523809522</v>
+        <v>6.6892857142857141</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -889,7 +889,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E94" si="0">(D11-C11)*24</f>
+        <f t="shared" ref="E11:E96" si="0">(D11-C11)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H20" s="4">
         <f>SUM(E92:E98)</f>
-        <v>1.749999999999998</v>
+        <v>3.6666666666666634</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -2137,6 +2137,30 @@
       <c r="E94" s="4">
         <f t="shared" si="0"/>
         <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="C95" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999991</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="C96" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -338,7 +338,7 @@
                   <c:v>28.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.666666666666663</c:v>
+                  <c:v>9.083333333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,11 +353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2132674568"/>
-        <c:axId val="-2132671544"/>
+        <c:axId val="2091974600"/>
+        <c:axId val="2091970264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2132674568"/>
+        <c:axId val="2091974600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,12 +366,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132671544"/>
+        <c:crossAx val="2091970264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2132671544"/>
+        <c:axId val="2091970264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132674568"/>
+        <c:crossAx val="2091974600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I96"/>
+  <dimension ref="B2:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>93.649999999999963</v>
+        <v>99.06666666666662</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -790,7 +790,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(H7:H20)</f>
-        <v>6.6892857142857141</v>
+        <v>7.0761904761904759</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -889,7 +889,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E96" si="0">(D11-C11)*24</f>
+        <f t="shared" ref="E11:E98" si="0">(D11-C11)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H20" s="4">
         <f>SUM(E92:E98)</f>
-        <v>3.6666666666666634</v>
+        <v>9.0833333333333286</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -2156,11 +2156,38 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="D96" s="2">
-        <v>0.57291666666666663</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666607</v>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="C97" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7499999999999982</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6">
+      <c r="C98" s="2">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -338,7 +338,7 @@
                   <c:v>28.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.083333333333328</c:v>
+                  <c:v>9.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,11 +353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091974600"/>
-        <c:axId val="2091970264"/>
+        <c:axId val="2068601480"/>
+        <c:axId val="2042786616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091974600"/>
+        <c:axId val="2068601480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,12 +366,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091970264"/>
+        <c:crossAx val="2042786616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091970264"/>
+        <c:axId val="2042786616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091974600"/>
+        <c:crossAx val="2068601480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -759,7 +759,7 @@
   <dimension ref="B2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>99.06666666666662</v>
+        <v>99.649999999999963</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -790,7 +790,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(H7:H20)</f>
-        <v>7.0761904761904759</v>
+        <v>7.117857142857142</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H20" s="4">
         <f>SUM(E92:E98)</f>
-        <v>9.0833333333333286</v>
+        <v>9.6666666666666607</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -2183,11 +2183,11 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="D98" s="2">
-        <v>0.95833333333333337</v>
+        <v>0.98263888888888884</v>
       </c>
       <c r="E98" s="4">
         <f t="shared" si="0"/>
-        <v>2.0833333333333339</v>
+        <v>2.6666666666666652</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Jackie's 4920 Hours - Baker/ Wiles research</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Wedding</t>
   </si>
 </sst>
 </file>
@@ -353,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2068601480"/>
-        <c:axId val="2042786616"/>
+        <c:axId val="-2136489704"/>
+        <c:axId val="-2136486744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2068601480"/>
+        <c:axId val="-2136489704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,12 +372,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2042786616"/>
+        <c:crossAx val="-2136486744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2042786616"/>
+        <c:axId val="-2136486744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -382,7 +388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068601480"/>
+        <c:crossAx val="-2136489704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -756,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I98"/>
+  <dimension ref="B2:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -781,7 +787,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>99.649999999999963</v>
+        <v>102.64999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -789,8 +795,8 @@
         <v>28</v>
       </c>
       <c r="C5" s="4">
-        <f>AVERAGE(H7:H20)</f>
-        <v>7.117857142857142</v>
+        <f>AVERAGE(H7:H21)</f>
+        <v>6.8433333333333328</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -889,7 +895,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E98" si="0">(D11-C11)*24</f>
+        <f t="shared" ref="E11:E99" si="0">(D11-C11)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1013,7 +1019,7 @@
         <v>2.7499999999999982</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:9">
       <c r="C17" s="2">
         <v>0.79513888888888884</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>6.083333333333333</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:9">
       <c r="C18" s="2">
         <v>0.90277777777777779</v>
       </c>
@@ -1051,7 +1057,7 @@
         <v>9.3333333333333357</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:9">
       <c r="B19" s="5">
         <v>42781</v>
       </c>
@@ -1073,7 +1079,7 @@
         <v>28.000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:9">
       <c r="C20" s="2">
         <v>0.72222222222222221</v>
       </c>
@@ -1091,8 +1097,11 @@
         <f>SUM(E92:E98)</f>
         <v>9.6666666666666607</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="5">
         <v>42782</v>
       </c>
@@ -1106,8 +1115,15 @@
         <f t="shared" si="0"/>
         <v>1.0833333333333348</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <f>SUM(E99:E105)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="5">
         <v>42786</v>
       </c>
@@ -1122,7 +1138,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:9">
       <c r="B23" s="5">
         <v>42787</v>
       </c>
@@ -1137,7 +1153,7 @@
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:9">
       <c r="B24" s="5">
         <v>42790</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>0.33333333333333481</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:9">
       <c r="B25" s="5">
         <v>42792</v>
       </c>
@@ -1167,7 +1183,7 @@
         <v>2.7500000000000009</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:9">
       <c r="B26" s="5">
         <v>42793</v>
       </c>
@@ -1182,7 +1198,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:9">
       <c r="B27" s="5">
         <v>42794</v>
       </c>
@@ -1197,7 +1213,7 @@
         <v>0.41666666666666918</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:9">
       <c r="B28" s="5">
         <v>42795</v>
       </c>
@@ -1212,7 +1228,7 @@
         <v>1.0833333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:9">
       <c r="C29" s="2">
         <v>0.70486111111111116</v>
       </c>
@@ -1224,7 +1240,7 @@
         <v>0.33333333333333215</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:9">
       <c r="B30" s="5">
         <v>42796</v>
       </c>
@@ -1239,7 +1255,7 @@
         <v>0.33333333333333481</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:9">
       <c r="C31" s="2">
         <v>0.625</v>
       </c>
@@ -1251,7 +1267,7 @@
         <v>0.91666666666666607</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:9">
       <c r="B32" s="5">
         <v>42797</v>
       </c>
@@ -2163,7 +2179,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="97" spans="3:6">
+    <row r="97" spans="2:6">
       <c r="C97" s="2">
         <v>0.73958333333333337</v>
       </c>
@@ -2178,7 +2194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="2:6">
       <c r="C98" s="2">
         <v>0.87152777777777779</v>
       </c>
@@ -2188,6 +2204,24 @@
       <c r="E98" s="4">
         <f t="shared" si="0"/>
         <v>2.6666666666666652</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="5">
+        <v>42870</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -359,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136489704"/>
-        <c:axId val="-2136486744"/>
+        <c:axId val="2089137256"/>
+        <c:axId val="2115199080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136489704"/>
+        <c:axId val="2089137256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +372,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136486744"/>
+        <c:crossAx val="2115199080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136486744"/>
+        <c:axId val="2115199080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136489704"/>
+        <c:crossAx val="2089137256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I99"/>
+  <dimension ref="B2:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>102.64999999999996</v>
+        <v>103.14999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -796,7 +796,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(H7:H21)</f>
-        <v>6.8433333333333328</v>
+        <v>6.876666666666666</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -895,7 +895,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E99" si="0">(D11-C11)*24</f>
+        <f t="shared" ref="E11:E100" si="0">(D11-C11)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="H21">
         <f>SUM(E99:E105)</f>
-        <v>3</v>
+        <v>3.5000000000000009</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2222,6 +2222,18 @@
       </c>
       <c r="F99" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="C100" s="2">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -359,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2089137256"/>
-        <c:axId val="2115199080"/>
+        <c:axId val="2131701672"/>
+        <c:axId val="2131704744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2089137256"/>
+        <c:axId val="2131701672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +372,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115199080"/>
+        <c:crossAx val="2131704744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115199080"/>
+        <c:axId val="2131704744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089137256"/>
+        <c:crossAx val="2131701672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -787,7 +787,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>103.14999999999996</v>
+        <v>103.31666666666663</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -796,7 +796,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(H7:H21)</f>
-        <v>6.876666666666666</v>
+        <v>6.8877777777777771</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="H21">
         <f>SUM(E99:E105)</f>
-        <v>3.5000000000000009</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2229,11 +2229,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D100" s="2">
-        <v>0.90972222222222221</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E100" s="4">
         <f t="shared" si="0"/>
-        <v>0.50000000000000089</v>
+        <v>0.66666666666666696</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -359,11 +359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131701672"/>
-        <c:axId val="2131704744"/>
+        <c:axId val="2090069000"/>
+        <c:axId val="2090072072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131701672"/>
+        <c:axId val="2090069000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +372,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131704744"/>
+        <c:crossAx val="2090072072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131704744"/>
+        <c:axId val="2090072072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131701672"/>
+        <c:crossAx val="2090069000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -762,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I100"/>
+  <dimension ref="B2:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C91" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>103.31666666666663</v>
+        <v>105.89999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -796,7 +796,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(H7:H21)</f>
-        <v>6.8877777777777771</v>
+        <v>7.06</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -895,7 +895,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E100" si="0">(D11-C11)*24</f>
+        <f t="shared" ref="E11:E101" si="0">(D11-C11)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1118,9 +1118,9 @@
       <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
         <f>SUM(E99:E105)</f>
-        <v>3.666666666666667</v>
+        <v>6.2499999999999991</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2234,6 +2234,24 @@
       <c r="E100" s="4">
         <f t="shared" si="0"/>
         <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="5">
+        <v>42871</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5833333333333321</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -250,9 +250,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>hours!$G$7:$G$20</c:f>
+              <c:f>hours!$G$7:$G$21</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Week 1</c:v>
                 </c:pt>
@@ -294,16 +294,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>Week 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Week 15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>hours!$H$7:$H$20</c:f>
+              <c:f>hours!$H$7:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>7.066666666666667</c:v>
                 </c:pt>
@@ -345,6 +348,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>9.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.91666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,11 +365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2090069000"/>
-        <c:axId val="2090072072"/>
+        <c:axId val="2114044216"/>
+        <c:axId val="2114041192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2090069000"/>
+        <c:axId val="2114044216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,12 +378,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090072072"/>
+        <c:crossAx val="2114041192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2090072072"/>
+        <c:axId val="2114041192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090069000"/>
+        <c:crossAx val="2114044216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -762,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I101"/>
+  <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -787,7 +793,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>105.89999999999996</v>
+        <v>113.56666666666663</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -796,7 +802,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(H7:H21)</f>
-        <v>7.06</v>
+        <v>7.5711111111111107</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -895,7 +901,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E101" si="0">(D11-C11)*24</f>
+        <f t="shared" ref="E11:E109" si="0">(D11-C11)*24</f>
         <v>0.50000000000000089</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1119,8 +1125,8 @@
         <v>31</v>
       </c>
       <c r="H21" s="4">
-        <f>SUM(E99:E105)</f>
-        <v>6.2499999999999991</v>
+        <f>SUM(E99:E115)</f>
+        <v>13.916666666666666</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2252,6 +2258,111 @@
       </c>
       <c r="F101" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="5">
+        <v>42872</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666687</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="5">
+        <v>42873</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666519</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="C104" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666785</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="C105" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5833333333333348</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="C106" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="C107" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333037</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="C108" s="2">
+        <v>0.95486111111111116</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999911</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="5">
+        <v>42874</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333437</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -350,7 +350,7 @@
                   <c:v>9.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.91666666666667</c:v>
+                  <c:v>14.58333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,11 +365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114044216"/>
-        <c:axId val="2114041192"/>
+        <c:axId val="2098026120"/>
+        <c:axId val="2098029128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114044216"/>
+        <c:axId val="2098026120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,12 +378,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114041192"/>
+        <c:crossAx val="2098029128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114041192"/>
+        <c:axId val="2098029128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114044216"/>
+        <c:crossAx val="2098026120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>113.56666666666663</v>
+        <v>114.23333333333331</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -802,7 +802,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(H7:H21)</f>
-        <v>7.5711111111111107</v>
+        <v>7.615555555555555</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="H21" s="4">
         <f>SUM(E99:E115)</f>
-        <v>13.916666666666666</v>
+        <v>14.583333333333332</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -2358,11 +2358,11 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="D109" s="2">
-        <v>0.4375</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E109" s="4">
         <f t="shared" si="0"/>
-        <v>0.83333333333333437</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="25600" windowHeight="13240" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="0" windowWidth="25600" windowHeight="13240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hours" sheetId="1" r:id="rId1"/>
-    <sheet name="thanks" sheetId="2" r:id="rId2"/>
+    <sheet name="summer" sheetId="3" r:id="rId2"/>
+    <sheet name="thanks" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +121,9 @@
   <si>
     <t>Wedding</t>
   </si>
+  <si>
+    <t>Jackie's 4000 Hours - Baker/ Wiles research</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +183,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -193,28 +197,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,11 +374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2098026120"/>
-        <c:axId val="2098029128"/>
+        <c:axId val="2091488408"/>
+        <c:axId val="2091488776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2098026120"/>
+        <c:axId val="2091488408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -378,12 +387,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098029128"/>
+        <c:crossAx val="2091488776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2098029128"/>
+        <c:axId val="2091488776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -394,7 +403,154 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098026120"/>
+        <c:crossAx val="2091488408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>summer!$G$7:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Week 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Week 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Week 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Week 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Week 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summer!$H$7:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2092902472"/>
+        <c:axId val="2092905432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2092902472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092905432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2092905432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092902472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -430,6 +586,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>465668</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59268</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -770,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1125,7 +1318,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="4">
-        <f>SUM(E99:E115)</f>
+        <f>SUM(E99:E109)</f>
         <v>14.583333333333332</v>
       </c>
     </row>
@@ -2382,6 +2575,704 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <f>SUM(E:E)</f>
+        <v>2.9166666666666656</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4">
+        <f>AVERAGE(H7:H21)</f>
+        <v>0.3645833333333332</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <f>SUM(E8:E15)</f>
+        <v>2.9166666666666656</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
+        <v>42898</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="6">
+        <f>(D8-C8)*24</f>
+        <v>2.9166666666666656</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4">
+        <f>SUM(E16:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4">
+        <f>SUM(E22:E25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4">
+        <f>SUM(E26:E32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4">
+        <f>SUM(E33:E35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM(E36:E40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4">
+        <f>SUM(E41:E45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4">
+        <f>SUM(E46:E52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="5"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="5"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="5"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="5"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="5"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="5"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="5"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="5"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="5"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="5"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="5"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="5"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="5"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="5"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="5"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="5"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="5"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="5"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="5"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="5"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="5"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="5"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="5"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="5"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="5"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="5"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Jackie's 4000 Hours - Baker/ Wiles research</t>
+  </si>
+  <si>
+    <t>Taking Images</t>
   </si>
 </sst>
 </file>
@@ -200,14 +203,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -448,7 +450,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>summer!$G$7:$G$21</c:f>
+              <c:f>summer!$H$7:$H$21</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -480,33 +482,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>summer!$H$7:$H$21</c:f>
+              <c:f>summer!$I$7:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.916666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>8.250000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,13 +587,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>465668</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>80434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>59268</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>97367</xdr:rowOff>
@@ -2575,45 +2556,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H109"/>
+  <dimension ref="B2:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="10.83203125" style="3"/>
+    <col min="8" max="8" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9">
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:9">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>2.9166666666666656</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>8.2500000000000018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="4">
-        <f>AVERAGE(H7:H21)</f>
-        <v>0.3645833333333332</v>
+        <f>AVERAGE(I7:I21)</f>
+        <v>8.2500000000000018</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2626,15 +2608,15 @@
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <f>SUM(E8:E15)</f>
-        <v>2.9166666666666656</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>8.2500000000000018</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>42898</v>
       </c>
@@ -2644,198 +2626,194 @@
       <c r="D8" s="2">
         <v>0.5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f>(D8-C8)*24</f>
         <v>2.9166666666666656</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4">
-        <f>SUM(E16:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="3" t="s">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="C9" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" ref="E9:E10" si="0">(D9-C9)*24</f>
+        <v>2.4166666666666661</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="4">
-        <f>SUM(E22:E25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666696</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="4">
-        <f>SUM(E26:E32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="4">
-        <f>SUM(E33:E35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4">
-        <f>SUM(E36:E40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="4">
-        <f>SUM(E41:E45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:9">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="4">
-        <f>SUM(E46:E52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="2:9">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:9">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:9">
       <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:9">
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:9">
       <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:9">
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:9">
       <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:9">
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:9">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:9">
       <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:9">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:9">
       <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2091488408"/>
-        <c:axId val="2091488776"/>
+        <c:axId val="2092188776"/>
+        <c:axId val="-2105653896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2091488408"/>
+        <c:axId val="2092188776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091488776"/>
+        <c:crossAx val="-2105653896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091488776"/>
+        <c:axId val="-2105653896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091488408"/>
+        <c:crossAx val="2092188776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -487,7 +487,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>8.250000000000001</c:v>
+                  <c:v>15.58333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,11 +502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2092902472"/>
-        <c:axId val="2092905432"/>
+        <c:axId val="-2105756552"/>
+        <c:axId val="-2105762024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2092902472"/>
+        <c:axId val="-2105756552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,12 +515,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092905432"/>
+        <c:crossAx val="-2105762024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2092905432"/>
+        <c:axId val="-2105762024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092902472"/>
+        <c:crossAx val="-2105756552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2558,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>8.2500000000000018</v>
+        <v>15.583333333333339</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>8.2500000000000018</v>
+        <v>15.583333333333339</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2612,8 +2612,8 @@
         <v>5</v>
       </c>
       <c r="I7" s="4">
-        <f>SUM(E8:E15)</f>
-        <v>8.2500000000000018</v>
+        <f>SUM(E8:E21)</f>
+        <v>15.583333333333339</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2643,7 +2643,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E10" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E16" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2672,10 +2672,22 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="5">
+        <v>42899</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4166666666666661</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
@@ -2683,9 +2695,16 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999911</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
@@ -2693,34 +2712,62 @@
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="5"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666696</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="5"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
+      </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9">

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2092188776"/>
-        <c:axId val="-2105653896"/>
+        <c:axId val="2141223720"/>
+        <c:axId val="2141226744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2092188776"/>
+        <c:axId val="2141223720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105653896"/>
+        <c:crossAx val="2141226744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105653896"/>
+        <c:axId val="2141226744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092188776"/>
+        <c:crossAx val="2141223720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -487,7 +487,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>15.58333333333334</c:v>
+                  <c:v>23.16666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,11 +502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2105756552"/>
-        <c:axId val="-2105762024"/>
+        <c:axId val="-2123146104"/>
+        <c:axId val="-2123152584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2105756552"/>
+        <c:axId val="-2123146104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,12 +515,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105762024"/>
+        <c:crossAx val="-2123152584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2105762024"/>
+        <c:axId val="-2123152584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105756552"/>
+        <c:crossAx val="-2123146104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2558,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>15.583333333333339</v>
+        <v>23.166666666666675</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>15.583333333333339</v>
+        <v>23.166666666666675</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="I7" s="4">
         <f>SUM(E8:E21)</f>
-        <v>15.583333333333339</v>
+        <v>23.166666666666675</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2643,7 +2643,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E16" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E21" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2771,35 +2771,76 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="5">
+        <v>42900</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666563</v>
+      </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333348</v>
+      </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
+      </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333357</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9">

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141223720"/>
-        <c:axId val="2141226744"/>
+        <c:axId val="2073849320"/>
+        <c:axId val="2073849688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2141223720"/>
+        <c:axId val="2073849320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141226744"/>
+        <c:crossAx val="2073849688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141226744"/>
+        <c:axId val="2073849688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141223720"/>
+        <c:crossAx val="2073849320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -487,7 +487,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>23.16666666666667</c:v>
+                  <c:v>30.58333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,11 +502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123146104"/>
-        <c:axId val="-2123152584"/>
+        <c:axId val="2073908248"/>
+        <c:axId val="2073911272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123146104"/>
+        <c:axId val="2073908248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,12 +515,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123152584"/>
+        <c:crossAx val="2073911272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123152584"/>
+        <c:axId val="2073911272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123146104"/>
+        <c:crossAx val="2073908248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2558,8 +2558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>23.166666666666675</v>
+        <v>30.583333333333339</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>23.166666666666675</v>
+        <v>30.583333333333339</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2612,8 +2612,8 @@
         <v>5</v>
       </c>
       <c r="I7" s="4">
-        <f>SUM(E8:E21)</f>
-        <v>23.166666666666675</v>
+        <f>SUM(E8:E27)</f>
+        <v>30.583333333333339</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2643,7 +2643,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E21" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E26" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2844,34 +2844,79 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="5"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="5">
+        <v>42901</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="5"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="5">
+        <v>42902</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666652</v>
+      </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="5"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666679</v>
+      </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999982</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333304</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073849320"/>
-        <c:axId val="2073849688"/>
+        <c:axId val="2117251032"/>
+        <c:axId val="2116187336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073849320"/>
+        <c:axId val="2117251032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073849688"/>
+        <c:crossAx val="2116187336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073849688"/>
+        <c:axId val="2116187336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073849320"/>
+        <c:crossAx val="2117251032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -487,7 +487,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>30.58333333333334</c:v>
+                  <c:v>31.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,11 +505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073908248"/>
-        <c:axId val="2073911272"/>
+        <c:axId val="2113579368"/>
+        <c:axId val="2115762984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073908248"/>
+        <c:axId val="2113579368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,12 +518,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073911272"/>
+        <c:crossAx val="2115762984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073911272"/>
+        <c:axId val="2115762984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073908248"/>
+        <c:crossAx val="2113579368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2559,7 +2562,7 @@
   <dimension ref="B2:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2581,7 +2584,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>30.583333333333339</v>
+        <v>31.166666666666671</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2590,7 +2593,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>30.583333333333339</v>
+        <v>15.583333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2613,7 +2616,7 @@
       </c>
       <c r="I7" s="4">
         <f>SUM(E8:E27)</f>
-        <v>30.583333333333339</v>
+        <v>31.166666666666671</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -2633,7 +2636,10 @@
       <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4">
+        <f>SUM(E28:E37)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:9">
       <c r="C9" s="2">
@@ -2643,7 +2649,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E26" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E27" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2919,10 +2925,19 @@
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="5">
+        <v>42904</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333393</v>
+      </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117251032"/>
-        <c:axId val="2116187336"/>
+        <c:axId val="2071921896"/>
+        <c:axId val="2066451832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2117251032"/>
+        <c:axId val="2071921896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116187336"/>
+        <c:crossAx val="2066451832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116187336"/>
+        <c:axId val="2066451832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117251032"/>
+        <c:crossAx val="2071921896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -490,7 +490,7 @@
                   <c:v>31.16666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,11 +505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113579368"/>
-        <c:axId val="2115762984"/>
+        <c:axId val="2071391176"/>
+        <c:axId val="2071388152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113579368"/>
+        <c:axId val="2071391176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,12 +518,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115762984"/>
+        <c:crossAx val="2071388152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115762984"/>
+        <c:axId val="2071388152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113579368"/>
+        <c:crossAx val="2071391176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2561,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>31.166666666666671</v>
+        <v>35.166666666666671</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>15.583333333333336</v>
+        <v>17.583333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="I8" s="4">
         <f>SUM(E28:E37)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2649,7 +2649,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E27" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E30" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2940,21 +2940,44 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="5">
+        <v>42905</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8333333333333335</v>
+      </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.416666666666667</v>
+      </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="5"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31" spans="2:9">
       <c r="C31" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071921896"/>
-        <c:axId val="2066451832"/>
+        <c:axId val="2115959256"/>
+        <c:axId val="2095160248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071921896"/>
+        <c:axId val="2115959256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066451832"/>
+        <c:crossAx val="2095160248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2066451832"/>
+        <c:axId val="2095160248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071921896"/>
+        <c:crossAx val="2115959256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -490,7 +490,7 @@
                   <c:v>31.16666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>10.91666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,11 +505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071391176"/>
-        <c:axId val="2071388152"/>
+        <c:axId val="2115419848"/>
+        <c:axId val="2115427240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071391176"/>
+        <c:axId val="2115419848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,12 +518,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071388152"/>
+        <c:crossAx val="2115427240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071388152"/>
+        <c:axId val="2115427240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071391176"/>
+        <c:crossAx val="2115419848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2561,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>35.166666666666671</v>
+        <v>44.249999999999993</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>17.583333333333336</v>
+        <v>21.041666666666668</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="I8" s="4">
         <f>SUM(E28:E37)</f>
-        <v>4</v>
+        <v>10.916666666666666</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2649,7 +2649,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E30" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E41" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2972,74 +2972,155 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="D30" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666519</v>
+      </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="5"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="5"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="5">
+        <v>42906</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
+      </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4"/>
+      <c r="C34" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666607</v>
+      </c>
     </row>
     <row r="35" spans="2:5">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4"/>
+      <c r="C35" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666652</v>
+      </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="5"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4"/>
+      <c r="C36" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
+      <c r="C37" s="2">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666785</v>
+      </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="5"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
+      <c r="C38" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="5"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="5">
+        <v>42907</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333481</v>
+      </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="5"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4"/>
+      <c r="C40" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="5"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
+      <c r="C41" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
     </row>
     <row r="42" spans="2:5">
       <c r="C42" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -490,7 +490,7 @@
                   <c:v>31.16666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.91666666666667</c:v>
+                  <c:v>17.66666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I109"/>
+  <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>44.249999999999993</v>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>21.041666666666668</v>
+        <v>24.416666666666671</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2637,8 +2637,8 @@
         <v>6</v>
       </c>
       <c r="I8" s="4">
-        <f>SUM(E28:E37)</f>
-        <v>10.916666666666666</v>
+        <f>SUM(E28:E56)</f>
+        <v>17.666666666666668</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2649,7 +2649,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E41" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E42" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -3004,7 +3004,7 @@
         <v>1.3333333333333339</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="2:6">
       <c r="B33" s="5">
         <v>42906</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>1.0000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:6">
       <c r="C34" s="2">
         <v>0.44791666666666669</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0.91666666666666607</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="2:6">
       <c r="C35" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>1.9166666666666652</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="2:6">
       <c r="B36" s="5"/>
       <c r="C36" s="2">
         <v>0.63541666666666663</v>
@@ -3056,7 +3056,7 @@
         <v>1.0000000000000018</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="2:6">
       <c r="C37" s="2">
         <v>0.68055555555555547</v>
       </c>
@@ -3068,93 +3068,106 @@
         <v>0.41666666666666785</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="5"/>
+    <row r="38" spans="2:6">
+      <c r="B38" s="5">
+        <v>42907</v>
+      </c>
       <c r="C38" s="2">
-        <v>0.59722222222222221</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D38" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666607</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="5">
-        <v>42907</v>
-      </c>
+        <v>0.33333333333333481</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="5"/>
       <c r="C39" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="D39" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333481</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
+        <v>0.33333333333333215</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="5"/>
       <c r="C40" s="2">
-        <v>0.4201388888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D40" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333215</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="5"/>
+        <v>1.3333333333333339</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="C41" s="2">
-        <v>0.44444444444444442</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D41" s="2">
-        <v>0.5</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="0"/>
-        <v>1.3333333333333339</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="2:5">
+        <v>1.416666666666667</v>
+      </c>
+      <c r="F41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="C42" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333348</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="5"/>
+    <row r="44" spans="2:6">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="2:6">
+      <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="5"/>
+    <row r="46" spans="2:6">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="2:6">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="2:6">
+      <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="4"/>
@@ -3166,7 +3179,6 @@
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="4"/>
@@ -3177,6 +3189,7 @@
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:5">
+      <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="4"/>
@@ -3188,7 +3201,6 @@
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="4"/>
@@ -3199,6 +3211,7 @@
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5">
+      <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="4"/>
@@ -3210,7 +3223,6 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="4"/>
@@ -3221,23 +3233,23 @@
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="2:5">
+      <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="2:5">
+      <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="4"/>
@@ -3258,6 +3270,7 @@
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="2:5">
+      <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="4"/>
@@ -3269,7 +3282,6 @@
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="4"/>
@@ -3280,6 +3292,7 @@
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="2:5">
+      <c r="B71" s="5"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="4"/>
@@ -3297,18 +3310,17 @@
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="5"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="2:5">
+      <c r="B75" s="5"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="5"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="4"/>
@@ -3329,12 +3341,12 @@
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="2:5">
+      <c r="B80" s="5"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="5"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="4"/>
@@ -3350,6 +3362,7 @@
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5">
+      <c r="B84" s="5"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="4"/>
@@ -3361,18 +3374,17 @@
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="5"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="2:5">
+      <c r="B87" s="5"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="5"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="4"/>
@@ -3388,23 +3400,23 @@
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:5">
+      <c r="B91" s="5"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="5"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="2:5">
+      <c r="B93" s="5"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="5"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="4"/>
@@ -3425,17 +3437,18 @@
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="2:5">
+      <c r="B98" s="5"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="5"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5">
+      <c r="B100" s="5"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="4"/>
@@ -3453,7 +3466,6 @@
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="5"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
@@ -3479,15 +3491,10 @@
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="2:5">
+      <c r="B108" s="5"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="5"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115959256"/>
-        <c:axId val="2095160248"/>
+        <c:axId val="2079955544"/>
+        <c:axId val="2079973720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115959256"/>
+        <c:axId val="2079955544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095160248"/>
+        <c:crossAx val="2079973720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095160248"/>
+        <c:axId val="2079973720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115959256"/>
+        <c:crossAx val="2079955544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -490,7 +490,7 @@
                   <c:v>31.16666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.66666666666667</c:v>
+                  <c:v>26.16666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -505,11 +505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115419848"/>
-        <c:axId val="2115427240"/>
+        <c:axId val="2080078024"/>
+        <c:axId val="2080090056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115419848"/>
+        <c:axId val="2080078024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,12 +518,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115427240"/>
+        <c:crossAx val="2080090056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115427240"/>
+        <c:axId val="2080090056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115419848"/>
+        <c:crossAx val="2080078024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2561,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>48.833333333333336</v>
+        <v>57.333333333333336</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>24.416666666666671</v>
+        <v>28.666666666666671</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="I8" s="4">
         <f>SUM(E28:E56)</f>
-        <v>17.666666666666668</v>
+        <v>26.166666666666668</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2649,7 +2649,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E42" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E46" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -3140,26 +3140,59 @@
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="5"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="5">
+        <v>42908</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
+      <c r="C44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="5"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
+      <c r="C45" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>2.166666666666667</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
+      <c r="B46" s="5">
+        <v>42909</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000013</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
       <c r="C47" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -490,7 +490,7 @@
                   <c:v>31.16666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.16666666666667</c:v>
+                  <c:v>28.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>57.333333333333336</v>
+        <v>59.916666666666664</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>28.666666666666671</v>
+        <v>29.958333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="I8" s="4">
         <f>SUM(E28:E56)</f>
-        <v>26.166666666666668</v>
+        <v>28.750000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -2649,7 +2649,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E46" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E47" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -3187,17 +3187,24 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D46" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="0"/>
-        <v>3.0000000000000013</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="4"/>
+      <c r="C47" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="0"/>
+        <v>2.916666666666667</v>
+      </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079955544"/>
-        <c:axId val="2079973720"/>
+        <c:axId val="2134052840"/>
+        <c:axId val="2134042456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2079955544"/>
+        <c:axId val="2134052840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079973720"/>
+        <c:crossAx val="2134042456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2079973720"/>
+        <c:axId val="2134042456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079955544"/>
+        <c:crossAx val="2134052840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -492,6 +492,9 @@
                 <c:pt idx="1">
                   <c:v>28.75</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -505,11 +508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2080078024"/>
-        <c:axId val="2080090056"/>
+        <c:axId val="2134020648"/>
+        <c:axId val="2134017624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2080078024"/>
+        <c:axId val="2134020648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -518,12 +521,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080090056"/>
+        <c:crossAx val="2134017624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2080090056"/>
+        <c:axId val="2134017624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,7 +537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080078024"/>
+        <c:crossAx val="2134020648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2561,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2584,7 +2587,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>59.916666666666664</v>
+        <v>71.916666666666671</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2593,7 +2596,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>29.958333333333336</v>
+        <v>23.972222222222225</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2637,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="4">
-        <f>SUM(E28:E56)</f>
+        <f>SUM(E28:E47)</f>
         <v>28.750000000000004</v>
       </c>
     </row>
@@ -2649,13 +2652,16 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E47" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E53" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <f>SUM(E48:E59)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="5"/>
@@ -3207,38 +3213,85 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="5"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="5">
+        <v>42912</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4166666666666665</v>
+      </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="5"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="4"/>
+      <c r="C49" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
     </row>
     <row r="50" spans="2:5">
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="4"/>
+      <c r="C50" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="5">
+        <v>42913</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="0"/>
+        <v>3.666666666666667</v>
+      </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="5"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
+      <c r="C52" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>1.583333333333333</v>
+      </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="5"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="4"/>
+      <c r="C53" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
+        <v>2.166666666666667</v>
+      </c>
     </row>
     <row r="54" spans="2:5">
       <c r="C54" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -493,7 +493,7 @@
                   <c:v>28.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>16.41666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2564,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>71.916666666666671</v>
+        <v>76.333333333333343</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>23.972222222222225</v>
+        <v>25.444444444444446</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2652,7 +2652,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E53" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E56" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="I9" s="4">
         <f>SUM(E48:E59)</f>
-        <v>12</v>
+        <v>16.416666666666668</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -3227,7 +3227,7 @@
         <v>3.4166666666666665</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:6">
       <c r="B49" s="5"/>
       <c r="C49" s="2">
         <v>0.52777777777777779</v>
@@ -3240,7 +3240,7 @@
         <v>0.16666666666666607</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:6">
       <c r="C50" s="2">
         <v>0.54166666666666663</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1.0000000000000018</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:6">
       <c r="B51" s="5">
         <v>42913</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>3.666666666666667</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:6">
       <c r="B52" s="5"/>
       <c r="C52" s="2">
         <v>0.5625</v>
@@ -3280,7 +3280,7 @@
         <v>1.583333333333333</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:6">
       <c r="B53" s="5"/>
       <c r="C53" s="2">
         <v>0.64583333333333337</v>
@@ -3293,61 +3293,88 @@
         <v>2.166666666666667</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="2:5">
+    <row r="54" spans="2:6">
+      <c r="B54" s="5">
+        <v>42914</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9166666666666687</v>
+      </c>
+      <c r="F54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="C55" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666874</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="5"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="C56" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:6">
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:6">
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:6">
       <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:6">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:6">
       <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:6">
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:6">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="4"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -376,11 +376,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134052840"/>
-        <c:axId val="2134042456"/>
+        <c:axId val="2102352696"/>
+        <c:axId val="2102355720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134052840"/>
+        <c:axId val="2102352696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134042456"/>
+        <c:crossAx val="2102355720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134042456"/>
+        <c:axId val="2102355720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134052840"/>
+        <c:crossAx val="2102352696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -493,7 +493,10 @@
                   <c:v>28.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.41666666666667</c:v>
+                  <c:v>29.08333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,11 +511,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134020648"/>
-        <c:axId val="2134017624"/>
+        <c:axId val="2102370696"/>
+        <c:axId val="2102373768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134020648"/>
+        <c:axId val="2102370696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,23 +524,24 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134017624"/>
+        <c:crossAx val="2102373768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2134017624"/>
+        <c:axId val="2102373768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134020648"/>
+        <c:crossAx val="2102370696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2562,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I108"/>
+  <dimension ref="B2:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2587,7 +2591,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>76.333333333333343</v>
+        <v>95.000000000000028</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -2596,7 +2600,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.444444444444446</v>
+        <v>23.75</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2652,15 +2656,15 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E56" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E66" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM(E48:E59)</f>
-        <v>16.416666666666668</v>
+        <f>SUM(E48:E62)</f>
+        <v>29.083333333333336</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -2681,7 +2685,10 @@
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="4">
+        <f>SUM(E63:E76)</f>
+        <v>6.0000000000000018</v>
+      </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="5">
@@ -3337,88 +3344,174 @@
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="5"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="4"/>
+      <c r="B57" s="5">
+        <v>42915</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666652</v>
+      </c>
+      <c r="F57" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="4"/>
+      <c r="C58" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4166666666666661</v>
+      </c>
+      <c r="F58" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="4"/>
+      <c r="C59" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999991</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="5"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="4"/>
+      <c r="B60" s="5">
+        <v>42916</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7499999999999996</v>
+      </c>
     </row>
     <row r="61" spans="2:6">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="4"/>
+      <c r="C61" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="5"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="4"/>
+      <c r="C62" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333335702E-2</v>
+      </c>
     </row>
     <row r="63" spans="2:6">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="4"/>
+      <c r="B63" s="5">
+        <v>42919</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333335</v>
+      </c>
     </row>
     <row r="64" spans="2:6">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="4"/>
+      <c r="B64" s="5">
+        <v>42920</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666679</v>
+      </c>
     </row>
     <row r="65" spans="2:5">
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="4"/>
+      <c r="C65" s="2">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5833333333333357</v>
+      </c>
     </row>
     <row r="66" spans="2:5">
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="4"/>
+      <c r="C66" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6666666666666643</v>
+      </c>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5">
+      <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5">
+      <c r="B70" s="5"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="5"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="5"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="4"/>
@@ -3430,6 +3523,7 @@
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="2:5">
+      <c r="B74" s="5"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="4"/>
@@ -3446,6 +3540,7 @@
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="2:5">
+      <c r="B77" s="5"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="4"/>
@@ -3461,7 +3556,6 @@
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="5"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="4"/>
@@ -3472,6 +3566,7 @@
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="2:5">
+      <c r="B82" s="5"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="4"/>
@@ -3482,18 +3577,17 @@
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="5"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="5"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="2:5">
+      <c r="B86" s="5"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="4"/>
@@ -3510,6 +3604,7 @@
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="2:5">
+      <c r="B89" s="5"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="4"/>
@@ -3520,7 +3615,6 @@
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="5"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="4"/>
@@ -3542,6 +3636,7 @@
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="2:5">
+      <c r="B95" s="5"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="4"/>
@@ -3557,7 +3652,6 @@
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="5"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="4"/>
@@ -3574,7 +3668,6 @@
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="5"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="4"/>
@@ -3586,11 +3679,13 @@
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="2:5">
+      <c r="B103" s="5"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="2:5">
+      <c r="B104" s="5"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="4"/>
@@ -3611,10 +3706,20 @@
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="5"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="5"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Taking Images</t>
+  </si>
+  <si>
+    <t>Day off</t>
   </si>
 </sst>
 </file>
@@ -376,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102352696"/>
-        <c:axId val="2102355720"/>
+        <c:axId val="2121655544"/>
+        <c:axId val="2121658504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102352696"/>
+        <c:axId val="2121655544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102355720"/>
+        <c:crossAx val="2121658504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102355720"/>
+        <c:axId val="2121658504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102352696"/>
+        <c:crossAx val="2121655544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -496,7 +499,7 @@
                   <c:v>29.08333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.000000000000002</c:v>
+                  <c:v>12.83333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,11 +514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102370696"/>
-        <c:axId val="2102373768"/>
+        <c:axId val="2121690344"/>
+        <c:axId val="2121693304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102370696"/>
+        <c:axId val="2121690344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,12 +527,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102373768"/>
+        <c:crossAx val="2121693304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102373768"/>
+        <c:axId val="2121693304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -541,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102370696"/>
+        <c:crossAx val="2121690344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -954,7 +957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A105" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2566,10 +2569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I110"/>
+  <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2577,35 +2580,35 @@
     <col min="8" max="8" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>95.000000000000028</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>101.83333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>23.75</v>
+        <v>25.458333333333332</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:10">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>31.166666666666671</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:10">
       <c r="B8" s="1">
         <v>42898</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>28.750000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:10">
       <c r="C9" s="2">
         <v>0.52083333333333337</v>
       </c>
@@ -2656,7 +2659,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E66" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E69" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2667,7 +2670,7 @@
         <v>29.083333333333336</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:10">
       <c r="B10" s="5"/>
       <c r="C10" s="2">
         <v>0.76041666666666663</v>
@@ -2687,10 +2690,13 @@
       </c>
       <c r="I10" s="4">
         <f>SUM(E63:E76)</f>
-        <v>6.0000000000000018</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>12.833333333333332</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="5">
         <v>42899</v>
       </c>
@@ -2712,7 +2718,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:10">
       <c r="B12" s="5"/>
       <c r="C12" s="2">
         <v>0.52430555555555558</v>
@@ -2729,7 +2735,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:10">
       <c r="B13" s="5"/>
       <c r="C13" s="2">
         <v>0.55902777777777779</v>
@@ -2746,7 +2752,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:10">
       <c r="C14" s="2">
         <v>0.60416666666666663</v>
       </c>
@@ -2762,7 +2768,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:10">
       <c r="C15" s="2">
         <v>0.66319444444444442</v>
       </c>
@@ -2775,7 +2781,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:10">
       <c r="B16" s="5"/>
       <c r="C16" s="2">
         <v>0.74652777777777779</v>
@@ -3459,8 +3465,11 @@
         <f t="shared" si="0"/>
         <v>2.6666666666666679</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="F64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="C65" s="2">
         <v>0.71180555555555547</v>
       </c>
@@ -3471,8 +3480,11 @@
         <f t="shared" si="0"/>
         <v>1.5833333333333357</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="F65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="C66" s="2">
         <v>0.78819444444444453</v>
       </c>
@@ -3484,78 +3496,102 @@
         <v>0.6666666666666643</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="2:5">
+    <row r="67" spans="2:6">
+      <c r="B67" s="5">
+        <v>42921</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666652</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="C68" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666661</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="5"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="2:5">
+      <c r="C69" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" s="5"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:6">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:6">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:6">
       <c r="B73" s="5"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:6">
       <c r="B74" s="5"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:6">
       <c r="B75" s="5"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:6">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:6">
       <c r="B77" s="5"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:6">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:6">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:6">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="4"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121655544"/>
-        <c:axId val="2121658504"/>
+        <c:axId val="2125103064"/>
+        <c:axId val="2125543608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121655544"/>
+        <c:axId val="2125103064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121658504"/>
+        <c:crossAx val="2125543608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121658504"/>
+        <c:axId val="2125543608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121655544"/>
+        <c:crossAx val="2125103064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -499,7 +499,7 @@
                   <c:v>29.08333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.83333333333333</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121690344"/>
-        <c:axId val="2121693304"/>
+        <c:axId val="2125582216"/>
+        <c:axId val="2125585240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121690344"/>
+        <c:axId val="2125582216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +527,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121693304"/>
+        <c:crossAx val="2125585240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121693304"/>
+        <c:axId val="2125585240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121690344"/>
+        <c:crossAx val="2125582216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2571,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>101.83333333333337</v>
+        <v>102.25000000000004</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.458333333333332</v>
+        <v>25.5625</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="I10" s="4">
         <f>SUM(E63:E76)</f>
-        <v>12.833333333333332</v>
+        <v>13.25</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -3529,11 +3529,11 @@
         <v>0.875</v>
       </c>
       <c r="D69" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.93402777777777779</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
+        <v>1.416666666666667</v>
       </c>
     </row>
     <row r="70" spans="2:6">

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125103064"/>
-        <c:axId val="2125543608"/>
+        <c:axId val="2139254808"/>
+        <c:axId val="2139251784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125103064"/>
+        <c:axId val="2139254808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125543608"/>
+        <c:crossAx val="2139251784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125543608"/>
+        <c:axId val="2139251784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125103064"/>
+        <c:crossAx val="2139254808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -499,7 +499,7 @@
                   <c:v>29.08333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.25</c:v>
+                  <c:v>13.83333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125582216"/>
-        <c:axId val="2125585240"/>
+        <c:axId val="2140637000"/>
+        <c:axId val="2140640008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125582216"/>
+        <c:axId val="2140637000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +527,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125585240"/>
+        <c:crossAx val="2140640008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125585240"/>
+        <c:axId val="2140640008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125582216"/>
+        <c:crossAx val="2140637000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2571,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>102.25000000000004</v>
+        <v>102.83333333333337</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.5625</v>
+        <v>25.708333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="I10" s="4">
         <f>SUM(E63:E76)</f>
-        <v>13.25</v>
+        <v>13.833333333333336</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -3529,11 +3529,11 @@
         <v>0.875</v>
       </c>
       <c r="D69" s="2">
-        <v>0.93402777777777779</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="0"/>
-        <v>1.416666666666667</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="70" spans="2:6">

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139254808"/>
-        <c:axId val="2139251784"/>
+        <c:axId val="2069771592"/>
+        <c:axId val="2069774408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139254808"/>
+        <c:axId val="2069771592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139251784"/>
+        <c:crossAx val="2069774408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139251784"/>
+        <c:axId val="2069774408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139254808"/>
+        <c:crossAx val="2069771592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -499,7 +499,7 @@
                   <c:v>29.08333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.83333333333334</c:v>
+                  <c:v>20.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140637000"/>
-        <c:axId val="2140640008"/>
+        <c:axId val="2070854808"/>
+        <c:axId val="2070857848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140637000"/>
+        <c:axId val="2070854808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +527,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140640008"/>
+        <c:crossAx val="2070857848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2140640008"/>
+        <c:axId val="2070857848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140637000"/>
+        <c:crossAx val="2070854808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2571,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>102.83333333333337</v>
+        <v>109.33333333333339</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.708333333333336</v>
+        <v>27.333333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2659,7 +2659,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E69" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E72" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="I10" s="4">
         <f>SUM(E63:E76)</f>
-        <v>13.833333333333336</v>
+        <v>20.333333333333339</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -3529,28 +3529,54 @@
         <v>0.875</v>
       </c>
       <c r="D69" s="2">
-        <v>0.95833333333333337</v>
+        <v>0.95486111111111116</v>
       </c>
       <c r="E69" s="4">
         <f t="shared" si="0"/>
-        <v>2.0000000000000009</v>
+        <v>1.9166666666666679</v>
       </c>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="5"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="4"/>
+      <c r="B70" s="5">
+        <v>42922</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="4"/>
+      <c r="C71" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666661</v>
+      </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="4"/>
+      <c r="C72" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000027</v>
+      </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2069771592"/>
-        <c:axId val="2069774408"/>
+        <c:axId val="2114500552"/>
+        <c:axId val="2095460504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2069771592"/>
+        <c:axId val="2114500552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069774408"/>
+        <c:crossAx val="2095460504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2069774408"/>
+        <c:axId val="2095460504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2069771592"/>
+        <c:crossAx val="2114500552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -499,7 +499,7 @@
                   <c:v>29.08333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.33333333333334</c:v>
+                  <c:v>24.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070854808"/>
-        <c:axId val="2070857848"/>
+        <c:axId val="2114518808"/>
+        <c:axId val="2114521768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070854808"/>
+        <c:axId val="2114518808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +527,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070857848"/>
+        <c:crossAx val="2114521768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070857848"/>
+        <c:axId val="2114521768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070854808"/>
+        <c:crossAx val="2114518808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2571,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>109.33333333333339</v>
+        <v>113.33333333333339</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>27.333333333333336</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2659,7 +2659,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E72" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E74" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="I10" s="4">
         <f>SUM(E63:E76)</f>
-        <v>20.333333333333339</v>
+        <v>24.333333333333339</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -3579,16 +3579,32 @@
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="5"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="4"/>
+      <c r="B73" s="5">
+        <v>42923</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666656</v>
+      </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="5"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="4"/>
+      <c r="C74" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8333333333333348</v>
+      </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -499,7 +499,7 @@
                   <c:v>29.08333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.33333333333334</c:v>
+                  <c:v>23.83333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,8 +2571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>113.33333333333339</v>
+        <v>112.83333333333339</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>28.333333333333336</v>
+        <v>28.208333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2689,8 +2689,8 @@
         <v>8</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM(E63:E76)</f>
-        <v>24.333333333333339</v>
+        <f>SUM(E63:E74)</f>
+        <v>23.833333333333336</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -3599,11 +3599,11 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="D74" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="0"/>
-        <v>1.8333333333333348</v>
+        <v>1.3333333333333339</v>
       </c>
     </row>
     <row r="75" spans="2:6">

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114500552"/>
-        <c:axId val="2095460504"/>
+        <c:axId val="-2138700056"/>
+        <c:axId val="-2140366632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114500552"/>
+        <c:axId val="-2138700056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095460504"/>
+        <c:crossAx val="-2140366632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095460504"/>
+        <c:axId val="-2140366632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114500552"/>
+        <c:crossAx val="-2138700056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -499,7 +499,10 @@
                   <c:v>29.08333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.83333333333334</c:v>
+                  <c:v>25.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.416666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114518808"/>
-        <c:axId val="2114521768"/>
+        <c:axId val="2096184088"/>
+        <c:axId val="2096193816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114518808"/>
+        <c:axId val="2096184088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -527,12 +530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114521768"/>
+        <c:crossAx val="2096193816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114521768"/>
+        <c:axId val="2096193816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -544,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114518808"/>
+        <c:crossAx val="2096184088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2571,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2594,7 +2597,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>112.83333333333339</v>
+        <v>119.75000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2603,7 +2606,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>28.208333333333336</v>
+        <v>23.950000000000003</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2659,7 +2662,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E74" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E78" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2689,8 +2692,8 @@
         <v>8</v>
       </c>
       <c r="I10" s="4">
-        <f>SUM(E63:E74)</f>
-        <v>23.833333333333336</v>
+        <f>SUM(E63:E75)</f>
+        <v>25.333333333333336</v>
       </c>
       <c r="J10" t="s">
         <v>35</v>
@@ -2716,7 +2719,10 @@
       <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4">
+        <f>SUM(E76:E88)</f>
+        <v>5.4166666666666679</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="5"/>
@@ -3607,26 +3613,59 @@
       </c>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="5"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="4"/>
+      <c r="B75" s="5">
+        <v>42925</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="4"/>
+      <c r="B76" s="5">
+        <v>42926</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="5"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="4"/>
+      <c r="C77" s="2">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3333333333333357</v>
+      </c>
     </row>
     <row r="78" spans="2:6">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="4"/>
+      <c r="C78" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="79" spans="2:6">
       <c r="C79" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138700056"/>
-        <c:axId val="-2140366632"/>
+        <c:axId val="-2138411304"/>
+        <c:axId val="2121834152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138700056"/>
+        <c:axId val="-2138411304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140366632"/>
+        <c:crossAx val="2121834152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140366632"/>
+        <c:axId val="2121834152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138700056"/>
+        <c:crossAx val="-2138411304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -502,7 +502,7 @@
                   <c:v>25.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.416666666666667</c:v>
+                  <c:v>5.833333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,11 +517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096184088"/>
-        <c:axId val="2096193816"/>
+        <c:axId val="2092333352"/>
+        <c:axId val="2092336312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096184088"/>
+        <c:axId val="2092333352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096193816"/>
+        <c:crossAx val="2092336312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096193816"/>
+        <c:axId val="2092336312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -547,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096184088"/>
+        <c:crossAx val="2092333352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2574,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>119.75000000000006</v>
+        <v>120.16666666666673</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>23.950000000000003</v>
+        <v>24.033333333333339</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2662,7 +2662,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E78" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E79" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I11" s="4">
         <f>SUM(E76:E88)</f>
-        <v>5.4166666666666679</v>
+        <v>5.8333333333333357</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -3668,9 +3668,16 @@
       </c>
     </row>
     <row r="79" spans="2:6">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="4"/>
+      <c r="C79" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666785</v>
+      </c>
     </row>
     <row r="80" spans="2:6">
       <c r="C80" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138411304"/>
-        <c:axId val="2121834152"/>
+        <c:axId val="2084181272"/>
+        <c:axId val="2084184296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138411304"/>
+        <c:axId val="2084181272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121834152"/>
+        <c:crossAx val="2084184296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121834152"/>
+        <c:axId val="2084184296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138411304"/>
+        <c:crossAx val="2084181272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -502,7 +502,7 @@
                   <c:v>25.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.833333333333335</c:v>
+                  <c:v>7.166666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,11 +517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2092333352"/>
-        <c:axId val="2092336312"/>
+        <c:axId val="2084249352"/>
+        <c:axId val="2084252376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2092333352"/>
+        <c:axId val="2084249352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092336312"/>
+        <c:crossAx val="2084252376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2092336312"/>
+        <c:axId val="2084252376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -547,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092333352"/>
+        <c:crossAx val="2084249352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2574,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>120.16666666666673</v>
+        <v>121.50000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>24.033333333333339</v>
+        <v>24.300000000000004</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2662,7 +2662,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E79" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E80" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I11" s="4">
         <f>SUM(E76:E88)</f>
-        <v>5.8333333333333357</v>
+        <v>7.166666666666667</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -3672,17 +3672,27 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D79" s="2">
-        <v>0.85069444444444453</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="E79" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666785</v>
+        <v>0.33333333333333215</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="4"/>
+      <c r="B80" s="5">
+        <v>42927</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="0"/>
+        <v>1.416666666666667</v>
+      </c>
     </row>
     <row r="81" spans="2:5">
       <c r="C81" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084181272"/>
-        <c:axId val="2084184296"/>
+        <c:axId val="2139446616"/>
+        <c:axId val="2139449640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084181272"/>
+        <c:axId val="2139446616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084184296"/>
+        <c:crossAx val="2139449640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084184296"/>
+        <c:axId val="2139449640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084181272"/>
+        <c:crossAx val="2139446616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -502,7 +502,7 @@
                   <c:v>25.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.166666666666667</c:v>
+                  <c:v>14.66666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,11 +517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084249352"/>
-        <c:axId val="2084252376"/>
+        <c:axId val="2139485720"/>
+        <c:axId val="2139488680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084249352"/>
+        <c:axId val="2139485720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084252376"/>
+        <c:crossAx val="2139488680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084252376"/>
+        <c:axId val="2139488680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -547,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2084249352"/>
+        <c:crossAx val="2139485720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2574,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>121.50000000000006</v>
+        <v>129.00000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>24.300000000000004</v>
+        <v>25.8</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2662,7 +2662,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E80" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E83" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I11" s="4">
         <f>SUM(E76:E88)</f>
-        <v>7.166666666666667</v>
+        <v>14.666666666666664</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -3695,20 +3695,43 @@
       </c>
     </row>
     <row r="81" spans="2:5">
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="4"/>
+      <c r="C81" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999982</v>
+      </c>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="5"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="4"/>
+      <c r="B82" s="5">
+        <v>42928</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
     </row>
     <row r="83" spans="2:5">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="4"/>
+      <c r="C83" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
+      </c>
     </row>
     <row r="84" spans="2:5">
       <c r="C84" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139446616"/>
-        <c:axId val="2139449640"/>
+        <c:axId val="2074855704"/>
+        <c:axId val="2074858824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139446616"/>
+        <c:axId val="2074855704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139449640"/>
+        <c:crossAx val="2074858824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139449640"/>
+        <c:axId val="2074858824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139446616"/>
+        <c:crossAx val="2074855704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -502,7 +502,7 @@
                   <c:v>25.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.66666666666666</c:v>
+                  <c:v>24.08333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,11 +517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139485720"/>
-        <c:axId val="2139488680"/>
+        <c:axId val="2046740120"/>
+        <c:axId val="2046743144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139485720"/>
+        <c:axId val="2046740120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139488680"/>
+        <c:crossAx val="2046743144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139488680"/>
+        <c:axId val="2046743144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -547,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139485720"/>
+        <c:crossAx val="2046740120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2572,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J110"/>
+  <dimension ref="B2:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>129.00000000000006</v>
+        <v>138.41666666666674</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.8</v>
+        <v>27.68333333333333</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2662,7 +2662,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E83" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E87" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2720,8 +2720,8 @@
         <v>14</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM(E76:E88)</f>
-        <v>14.666666666666664</v>
+        <f>SUM(E76:E89)</f>
+        <v>24.083333333333321</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -3475,7 +3475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:7">
       <c r="C65" s="2">
         <v>0.71180555555555547</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:7">
       <c r="C66" s="2">
         <v>0.78819444444444453</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0.6666666666666643</v>
       </c>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:7">
       <c r="B67" s="5">
         <v>42921</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>2.6666666666666652</v>
       </c>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:7">
       <c r="C68" s="2">
         <v>0.65277777777777779</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>3.1666666666666661</v>
       </c>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:7">
       <c r="B69" s="5"/>
       <c r="C69" s="2">
         <v>0.875</v>
@@ -3542,7 +3542,7 @@
         <v>1.9166666666666679</v>
       </c>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:7">
       <c r="B70" s="5">
         <v>42922</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:7">
       <c r="C71" s="2">
         <v>0.4375</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1.6666666666666661</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:7">
       <c r="C72" s="2">
         <v>0.51736111111111105</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>3.7500000000000027</v>
       </c>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:7">
       <c r="B73" s="5">
         <v>42923</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>2.1666666666666656</v>
       </c>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:7">
       <c r="B74" s="5"/>
       <c r="C74" s="2">
         <v>0.50694444444444442</v>
@@ -3612,7 +3612,7 @@
         <v>1.3333333333333339</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:7">
       <c r="B75" s="5">
         <v>42925</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:7">
       <c r="B76" s="5">
         <v>42926</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0.33333333333333215</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:7">
       <c r="B77" s="5"/>
       <c r="C77" s="2">
         <v>0.37152777777777773</v>
@@ -3654,8 +3654,9 @@
         <f t="shared" si="0"/>
         <v>4.3333333333333357</v>
       </c>
-    </row>
-    <row r="78" spans="2:6">
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="2:7">
       <c r="C78" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -3666,8 +3667,9 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="79" spans="2:6">
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="2:7">
       <c r="C79" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -3678,8 +3680,9 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333215</v>
       </c>
-    </row>
-    <row r="80" spans="2:6">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:7">
       <c r="B80" s="5">
         <v>42927</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>1.416666666666667</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:7">
       <c r="C81" s="2">
         <v>0.64930555555555558</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>3.4999999999999982</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:7">
       <c r="B82" s="5">
         <v>42928</v>
       </c>
@@ -3714,91 +3717,127 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D82" s="2">
-        <v>0.5</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E82" s="4">
         <f t="shared" si="0"/>
-        <v>1.9999999999999996</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
+        <v>3.7499999999999987</v>
+      </c>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="2:7">
       <c r="C83" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="D83" s="2">
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E83" s="4">
         <f t="shared" si="0"/>
-        <v>2.0000000000000009</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="2:5">
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="5">
+        <v>42929</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="5">
+        <v>42930</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333126</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
       <c r="B86" s="5"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="2:5">
+      <c r="C86" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="0"/>
+        <v>1.583333333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87" s="5"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="2:5">
+      <c r="C87" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="5"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="5"/>
+    <row r="89" spans="2:7">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:7">
+      <c r="B90" s="5"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:7">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:7">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="5"/>
+    <row r="93" spans="2:7">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:7">
+      <c r="B94" s="5"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="5"/>
+    <row r="95" spans="2:7">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:7">
+      <c r="B96" s="5"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="4"/>
@@ -3819,18 +3858,17 @@
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="5"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="2:5">
+      <c r="B101" s="5"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="5"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="4"/>
@@ -3848,6 +3886,7 @@
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="2:5">
+      <c r="B105" s="5"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
@@ -3873,10 +3912,15 @@
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="5"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="5"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -502,7 +502,7 @@
                   <c:v>25.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.08333333333332</c:v>
+                  <c:v>24.91666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2572,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J111"/>
+  <dimension ref="B2:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>138.41666666666674</v>
+        <v>139.25000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>27.68333333333333</v>
+        <v>27.85</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2662,7 +2662,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E87" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E88" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2720,8 +2720,8 @@
         <v>14</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM(E76:E89)</f>
-        <v>24.083333333333321</v>
+        <f>SUM(E76:E95)</f>
+        <v>24.916666666666661</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -3710,107 +3710,114 @@
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="5">
+      <c r="C82" s="2">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333335702E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="5">
         <v>42928</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C83" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D83" s="2">
         <v>0.57291666666666663</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <f t="shared" si="0"/>
         <v>3.7499999999999987</v>
       </c>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="C83" s="2">
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="C84" s="2">
         <v>0.59375</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D84" s="2">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999999999911</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="5">
-        <v>42929</v>
-      </c>
-      <c r="C84" s="2">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="E84" s="4">
-        <f t="shared" si="0"/>
-        <v>0.49999999999999822</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="5">
+        <v>42929</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="5">
         <v>42930</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C86" s="2">
         <v>0.37847222222222227</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D86" s="2">
         <v>0.40277777777777773</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333126</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="5"/>
-      <c r="C86" s="2">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="E86" s="4">
-        <f t="shared" si="0"/>
-        <v>1.583333333333333</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="5"/>
       <c r="C87" s="2">
-        <v>0.5625</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="D87" s="2">
-        <v>0.8125</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E87" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1.6666666666666661</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="5"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="4"/>
+      <c r="C88" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
     </row>
     <row r="89" spans="2:7">
+      <c r="B89" s="5"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="5"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:7">
+      <c r="B91" s="5"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="4"/>
@@ -3826,23 +3833,23 @@
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="5"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="2:7">
+      <c r="B95" s="5"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="5"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="2:5">
+      <c r="B97" s="5"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="4"/>
@@ -3863,18 +3870,17 @@
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="5"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="2:5">
+      <c r="B102" s="5"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="5"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
@@ -3892,6 +3898,7 @@
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="2:5">
+      <c r="B106" s="5"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
@@ -3917,10 +3924,15 @@
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="2:5">
-      <c r="B111" s="5"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="5"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2074855704"/>
-        <c:axId val="2074858824"/>
+        <c:axId val="2126520168"/>
+        <c:axId val="2126517096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2074855704"/>
+        <c:axId val="2126520168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074858824"/>
+        <c:crossAx val="2126517096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2074858824"/>
+        <c:axId val="2126517096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074855704"/>
+        <c:crossAx val="2126520168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -502,7 +502,7 @@
                   <c:v>25.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.91666666666666</c:v>
+                  <c:v>28.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,11 +517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2046740120"/>
-        <c:axId val="2046743144"/>
+        <c:axId val="2127605784"/>
+        <c:axId val="2127602760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2046740120"/>
+        <c:axId val="2127605784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046743144"/>
+        <c:crossAx val="2127602760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2046743144"/>
+        <c:axId val="2127602760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -547,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046740120"/>
+        <c:crossAx val="2127605784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2574,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>139.25000000000006</v>
+        <v>142.5833333333334</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>27.85</v>
+        <v>28.516666666666669</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2662,7 +2662,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E88" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E91" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I11" s="4">
         <f>SUM(E76:E95)</f>
-        <v>24.916666666666661</v>
+        <v>28.249999999999996</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -3804,23 +3804,47 @@
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="5"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="4"/>
+      <c r="B89" s="5">
+        <v>42932</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="4"/>
+      <c r="C90" s="2">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333348</v>
+      </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="5"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="4"/>
+      <c r="C91" s="2">
+        <v>0.75347222222222221</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="92" spans="2:7">
       <c r="C92" s="2"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -502,7 +502,7 @@
                   <c:v>25.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.25</c:v>
+                  <c:v>28.33333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>142.5833333333334</v>
+        <v>142.66666666666671</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>28.516666666666669</v>
+        <v>28.533333333333339</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I11" s="4">
         <f>SUM(E76:E95)</f>
-        <v>28.249999999999996</v>
+        <v>28.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -3826,24 +3826,24 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="D90" s="2">
-        <v>0.74652777777777779</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="E90" s="4">
         <f t="shared" si="0"/>
-        <v>1.0833333333333348</v>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="5"/>
       <c r="C91" s="2">
-        <v>0.75347222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="D91" s="2">
-        <v>0.78472222222222221</v>
+        <v>0.78819444444444453</v>
       </c>
       <c r="E91" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.91666666666666874</v>
       </c>
     </row>
     <row r="92" spans="2:7">

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126520168"/>
-        <c:axId val="2126517096"/>
+        <c:axId val="2083176376"/>
+        <c:axId val="2083957944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126520168"/>
+        <c:axId val="2083176376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126517096"/>
+        <c:crossAx val="2083957944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126517096"/>
+        <c:axId val="2083957944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126520168"/>
+        <c:crossAx val="2083176376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -504,6 +504,9 @@
                 <c:pt idx="4">
                   <c:v>28.33333333333333</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.083333333333332</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -517,11 +520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127605784"/>
-        <c:axId val="2127602760"/>
+        <c:axId val="2083991128"/>
+        <c:axId val="2083994152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127605784"/>
+        <c:axId val="2083991128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,12 +533,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127602760"/>
+        <c:crossAx val="2083994152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127602760"/>
+        <c:axId val="2083994152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -547,7 +550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127605784"/>
+        <c:crossAx val="2083991128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2574,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2597,7 +2600,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>142.66666666666671</v>
+        <v>148.75000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2606,7 +2609,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>28.533333333333339</v>
+        <v>24.791666666666671</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2662,7 +2665,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E91" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E94" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2720,7 +2723,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="4">
-        <f>SUM(E76:E95)</f>
+        <f>SUM(E76:E91)</f>
         <v>28.333333333333329</v>
       </c>
     </row>
@@ -2739,7 +2742,10 @@
       <c r="H12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4">
+        <f>SUM(E92:E106)</f>
+        <v>6.0833333333333321</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="5"/>
@@ -3847,19 +3853,43 @@
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="4"/>
+      <c r="B92" s="5">
+        <v>42933</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666656</v>
+      </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="4"/>
+      <c r="C93" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666679</v>
+      </c>
     </row>
     <row r="94" spans="2:7">
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="4"/>
+      <c r="C94" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999982</v>
+      </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -505,7 +505,7 @@
                   <c:v>28.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.083333333333332</c:v>
+                  <c:v>5.833333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>148.75000000000003</v>
+        <v>148.50000000000003</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>24.791666666666671</v>
+        <v>24.750000000000004</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="I12" s="4">
         <f>SUM(E92:E106)</f>
-        <v>6.0833333333333321</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -3884,11 +3884,11 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D94" s="2">
-        <v>0.80555555555555547</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="E94" s="4">
         <f t="shared" si="0"/>
-        <v>1.9999999999999982</v>
+        <v>1.7499999999999991</v>
       </c>
     </row>
     <row r="95" spans="2:7">

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083176376"/>
-        <c:axId val="2083957944"/>
+        <c:axId val="2067173576"/>
+        <c:axId val="2081622440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083176376"/>
+        <c:axId val="2067173576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +392,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083957944"/>
+        <c:crossAx val="2081622440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083957944"/>
+        <c:axId val="2081622440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083176376"/>
+        <c:crossAx val="2067173576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -505,7 +505,7 @@
                   <c:v>28.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.833333333333332</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,11 +520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083991128"/>
-        <c:axId val="2083994152"/>
+        <c:axId val="2083037880"/>
+        <c:axId val="2083078168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083991128"/>
+        <c:axId val="2083037880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,12 +533,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083994152"/>
+        <c:crossAx val="2083078168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083994152"/>
+        <c:axId val="2083078168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -550,7 +550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083991128"/>
+        <c:crossAx val="2083037880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2577,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>148.50000000000003</v>
+        <v>154.16666666666671</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>24.750000000000004</v>
+        <v>25.694444444444446</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2665,7 +2665,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E94" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E96" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="I12" s="4">
         <f>SUM(E92:E106)</f>
-        <v>5.833333333333333</v>
+        <v>11.499999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -3892,15 +3892,31 @@
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="5"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="4"/>
+      <c r="B95" s="5">
+        <v>42934</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333331705E-2</v>
+      </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="4"/>
+      <c r="C96" s="2">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="0"/>
+        <v>5.5833333333333339</v>
+      </c>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -505,7 +505,7 @@
                   <c:v>28.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5</c:v>
+                  <c:v>8.333333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J112"/>
+  <dimension ref="B2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>154.16666666666671</v>
+        <v>151.00000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.694444444444446</v>
+        <v>25.166666666666671</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2665,7 +2665,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E96" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E97" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2743,8 +2743,8 @@
         <v>15</v>
       </c>
       <c r="I12" s="4">
-        <f>SUM(E92:E106)</f>
-        <v>11.499999999999998</v>
+        <f>SUM(E92:E104)</f>
+        <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -3911,18 +3911,25 @@
         <v>0.4548611111111111</v>
       </c>
       <c r="D96" s="2">
-        <v>0.6875</v>
+        <v>0.53125</v>
       </c>
       <c r="E96" s="4">
         <f t="shared" si="0"/>
-        <v>5.5833333333333339</v>
+        <v>1.8333333333333335</v>
       </c>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="5"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="4"/>
+      <c r="C97" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333393</v>
+      </c>
     </row>
     <row r="98" spans="2:5">
       <c r="C98" s="2"/>
@@ -3935,6 +3942,7 @@
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="2:5">
+      <c r="B100" s="5"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="4"/>
@@ -3951,6 +3959,7 @@
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="2:5">
+      <c r="B103" s="5"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="4"/>
@@ -3962,13 +3971,11 @@
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="5"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="5"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="4"/>
@@ -3989,20 +3996,10 @@
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="2:5">
+      <c r="B110" s="5"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="5"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="25600" windowHeight="13240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hours" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Day off</t>
+  </si>
+  <si>
+    <t>Sick</t>
   </si>
 </sst>
 </file>
@@ -379,11 +382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2067173576"/>
-        <c:axId val="2081622440"/>
+        <c:axId val="2103524248"/>
+        <c:axId val="2103521176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2067173576"/>
+        <c:axId val="2103524248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,12 +395,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081622440"/>
+        <c:crossAx val="2103521176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081622440"/>
+        <c:axId val="2103521176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -408,7 +411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2067173576"/>
+        <c:crossAx val="2103524248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -455,7 +458,7 @@
             <c:strRef>
               <c:f>summer!$H$7:$H$21</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Week 1</c:v>
                 </c:pt>
@@ -479,6 +482,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Week 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Week 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Week 10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -505,7 +514,10 @@
                   <c:v>28.33333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.333333333333332</c:v>
+                  <c:v>16.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,11 +532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083037880"/>
-        <c:axId val="2083078168"/>
+        <c:axId val="2097188776"/>
+        <c:axId val="2097191800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083037880"/>
+        <c:axId val="2097188776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -533,12 +545,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083078168"/>
+        <c:crossAx val="2097191800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083078168"/>
+        <c:axId val="2097191800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -550,7 +562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083037880"/>
+        <c:crossAx val="2097188776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2575,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J110"/>
+  <dimension ref="B2:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2600,7 +2612,11 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>151.00000000000006</v>
+        <v>171.83333333333346</v>
+      </c>
+      <c r="F4">
+        <f>3*4*16</f>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:10">
@@ -2609,7 +2625,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.166666666666671</v>
+        <v>24.547619047619047</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2665,7 +2681,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E97" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E116" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2726,6 +2742,9 @@
         <f>SUM(E76:E91)</f>
         <v>28.333333333333329</v>
       </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="5"/>
@@ -2743,8 +2762,11 @@
         <v>15</v>
       </c>
       <c r="I12" s="4">
-        <f>SUM(E92:E104)</f>
-        <v>8.3333333333333321</v>
+        <f>SUM(E92:E108)</f>
+        <v>16.666666666666657</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:10">
@@ -2762,7 +2784,10 @@
       <c r="H13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4">
+        <f>SUM(E109:E126)</f>
+        <v>12.500000000000004</v>
+      </c>
     </row>
     <row r="14" spans="2:10">
       <c r="C14" s="2">
@@ -2790,6 +2815,9 @@
       <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000000000018</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -2805,6 +2833,9 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9">
@@ -3932,74 +3963,255 @@
       </c>
     </row>
     <row r="98" spans="2:5">
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="4"/>
+      <c r="B98" s="5">
+        <v>42935</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
     </row>
     <row r="99" spans="2:5">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="4"/>
+      <c r="C99" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4166666666666656</v>
+      </c>
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="5"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="4"/>
+      <c r="C100" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333313</v>
+      </c>
     </row>
     <row r="101" spans="2:5">
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="4"/>
+      <c r="B101" s="5">
+        <v>42937</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="5"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="4"/>
+      <c r="C102" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="5"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="4"/>
+      <c r="C103" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="5"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="4"/>
+      <c r="C104" s="2">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
     </row>
     <row r="105" spans="2:5">
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="4"/>
+      <c r="C105" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999911</v>
+      </c>
     </row>
     <row r="106" spans="2:5">
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="4"/>
+      <c r="B106" s="5">
+        <v>42939</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
     </row>
     <row r="107" spans="2:5">
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="4"/>
+      <c r="C107" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666696</v>
+      </c>
     </row>
     <row r="108" spans="2:5">
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="4"/>
+      <c r="C108" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
+      </c>
     </row>
     <row r="109" spans="2:5">
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="4"/>
+      <c r="B109" s="5">
+        <v>42940</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8333333333333335</v>
+      </c>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="5"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="4"/>
+      <c r="C110" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E110" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333481</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="C111" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E111" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333348</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="C112" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333339</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="C113" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999991</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="5">
+        <v>42941</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2500000000000018</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="C115" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333313</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="5">
+        <v>42942</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333304</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -517,7 +517,7 @@
                   <c:v>16.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.5</c:v>
+                  <c:v>17.83333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J116"/>
+  <dimension ref="B2:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>171.83333333333346</v>
+        <v>177.16666666666677</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>24.547619047619047</v>
+        <v>25.309523809523814</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2681,7 +2681,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E116" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E118" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUM(E109:E126)</f>
-        <v>12.500000000000004</v>
+        <v>17.833333333333336</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4206,11 +4206,35 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D116" s="2">
-        <v>0.4513888888888889</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="0"/>
-        <v>0.83333333333333304</v>
+        <v>0.91666666666666607</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="C117" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="E117" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4166666666666643</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="C118" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E118" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8333333333333357</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -517,7 +517,7 @@
                   <c:v>16.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.83333333333334</c:v>
+                  <c:v>18.33333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>177.16666666666677</v>
+        <v>177.66666666666677</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.309523809523814</v>
+        <v>25.380952380952383</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUM(E109:E126)</f>
-        <v>17.833333333333336</v>
+        <v>18.333333333333336</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4230,11 +4230,11 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="D118" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="0"/>
-        <v>3.8333333333333357</v>
+        <v>4.3333333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -517,7 +517,7 @@
                   <c:v>16.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.33333333333334</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J118"/>
+  <dimension ref="B2:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>177.66666666666677</v>
+        <v>179.58333333333343</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.380952380952383</v>
+        <v>25.654761904761905</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2681,7 +2681,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E118" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E119" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUM(E109:E126)</f>
-        <v>18.333333333333336</v>
+        <v>20.250000000000004</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4235,6 +4235,18 @@
       <c r="E118" s="4">
         <f t="shared" si="0"/>
         <v>4.3333333333333339</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="C119" s="2">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="E119" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666679</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -382,11 +382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2103524248"/>
-        <c:axId val="2103521176"/>
+        <c:axId val="2068679144"/>
+        <c:axId val="2068682120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2103524248"/>
+        <c:axId val="2068679144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,12 +395,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103521176"/>
+        <c:crossAx val="2068682120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103521176"/>
+        <c:axId val="2068682120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103524248"/>
+        <c:crossAx val="2068679144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -517,7 +517,7 @@
                   <c:v>16.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.25</c:v>
+                  <c:v>22.58333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,11 +532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097188776"/>
-        <c:axId val="2097191800"/>
+        <c:axId val="2068728824"/>
+        <c:axId val="2068731896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097188776"/>
+        <c:axId val="2068728824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,12 +545,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097191800"/>
+        <c:crossAx val="2068731896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097191800"/>
+        <c:axId val="2068731896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -562,7 +562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097188776"/>
+        <c:crossAx val="2068728824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2587,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J119"/>
+  <dimension ref="B2:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>179.58333333333343</v>
+        <v>181.91666666666677</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.654761904761905</v>
+        <v>25.988095238095241</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2681,7 +2681,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E119" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E121" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUM(E109:E126)</f>
-        <v>20.250000000000004</v>
+        <v>22.583333333333339</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4247,6 +4247,30 @@
       <c r="E119" s="4">
         <f t="shared" si="0"/>
         <v>1.9166666666666679</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="C120" s="2">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="E120" s="4">
+        <f t="shared" si="0"/>
+        <v>0.8333333333333357</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E121" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -382,11 +382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2068679144"/>
-        <c:axId val="2068682120"/>
+        <c:axId val="2087666088"/>
+        <c:axId val="2087669112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2068679144"/>
+        <c:axId val="2087666088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,12 +395,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068682120"/>
+        <c:crossAx val="2087669112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2068682120"/>
+        <c:axId val="2087669112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068679144"/>
+        <c:crossAx val="2087666088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -517,7 +517,7 @@
                   <c:v>16.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.58333333333334</c:v>
+                  <c:v>27.91666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,11 +532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2068728824"/>
-        <c:axId val="2068731896"/>
+        <c:axId val="2088643048"/>
+        <c:axId val="2088646072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2068728824"/>
+        <c:axId val="2088643048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,12 +545,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068731896"/>
+        <c:crossAx val="2088646072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2068731896"/>
+        <c:axId val="2088646072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -562,7 +562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068728824"/>
+        <c:crossAx val="2088643048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2587,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J121"/>
+  <dimension ref="B2:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>181.91666666666677</v>
+        <v>187.25000000000009</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.988095238095241</v>
+        <v>26.75</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2681,7 +2681,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E121" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E124" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2785,8 +2785,8 @@
         <v>17</v>
       </c>
       <c r="I13" s="4">
-        <f>SUM(E109:E126)</f>
-        <v>22.583333333333339</v>
+        <f>SUM(E109:E128)</f>
+        <v>27.916666666666671</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4271,6 +4271,45 @@
       <c r="E121" s="4">
         <f t="shared" si="0"/>
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="5">
+        <v>42943</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="C123" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E123" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666652</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="C124" s="2">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E124" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -382,11 +382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087666088"/>
-        <c:axId val="2087669112"/>
+        <c:axId val="2113494296"/>
+        <c:axId val="2113497320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087666088"/>
+        <c:axId val="2113494296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,12 +395,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087669112"/>
+        <c:crossAx val="2113497320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087669112"/>
+        <c:axId val="2113497320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087666088"/>
+        <c:crossAx val="2113494296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -517,7 +517,7 @@
                   <c:v>16.66666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.91666666666667</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,11 +532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088643048"/>
-        <c:axId val="2088646072"/>
+        <c:axId val="2113489832"/>
+        <c:axId val="2113492792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088643048"/>
+        <c:axId val="2113489832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,12 +545,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088646072"/>
+        <c:crossAx val="2113492792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088646072"/>
+        <c:axId val="2113492792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -562,7 +562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088643048"/>
+        <c:crossAx val="2113489832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2587,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J124"/>
+  <dimension ref="B2:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>187.25000000000009</v>
+        <v>189.3333333333334</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>26.75</v>
+        <v>27.047619047619047</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2681,7 +2681,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E124" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E126" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="I13" s="4">
         <f>SUM(E109:E128)</f>
-        <v>27.916666666666671</v>
+        <v>30.000000000000004</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -4310,6 +4310,33 @@
       <c r="E124" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="5">
+        <v>42944</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E125" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666563</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="C126" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="E126" s="4">
+        <f t="shared" si="0"/>
+        <v>1.416666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -382,11 +382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113494296"/>
-        <c:axId val="2113497320"/>
+        <c:axId val="2128540744"/>
+        <c:axId val="2128543768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113494296"/>
+        <c:axId val="2128540744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,12 +395,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113497320"/>
+        <c:crossAx val="2128543768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113497320"/>
+        <c:axId val="2128543768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113494296"/>
+        <c:crossAx val="2128540744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -519,6 +519,9 @@
                 <c:pt idx="6">
                   <c:v>30.0</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -532,11 +535,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2113489832"/>
-        <c:axId val="2113492792"/>
+        <c:axId val="2128573656"/>
+        <c:axId val="2128576680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2113489832"/>
+        <c:axId val="2128573656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,12 +548,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113492792"/>
+        <c:crossAx val="2128576680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113492792"/>
+        <c:axId val="2128576680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -562,7 +565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113489832"/>
+        <c:crossAx val="2128573656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2587,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J126"/>
+  <dimension ref="B2:J132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2612,7 +2615,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>189.3333333333334</v>
+        <v>200.33333333333337</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2625,7 +2628,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>27.047619047619047</v>
+        <v>25.041666666666668</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2681,7 +2684,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E126" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E132" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2785,7 +2788,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="4">
-        <f>SUM(E109:E128)</f>
+        <f>SUM(E109:E126)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
@@ -2803,7 +2806,10 @@
       <c r="H14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4">
+        <f>SUM(E127:E135)</f>
+        <v>11.000000000000002</v>
+      </c>
     </row>
     <row r="15" spans="2:10">
       <c r="C15" s="2">
@@ -4337,6 +4343,84 @@
       <c r="E126" s="4">
         <f t="shared" si="0"/>
         <v>1.416666666666667</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="5">
+        <v>42947</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="E127" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666563</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="C128" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E128" s="4">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="C129" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E129" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666874</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="C130" s="2">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="E130" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="C131" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E131" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999991</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="5">
+        <v>42948</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E132" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -520,7 +520,7 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.0</c:v>
+                  <c:v>18.33333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2590,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J132"/>
+  <dimension ref="B2:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>200.33333333333337</v>
+        <v>207.66666666666669</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.041666666666668</v>
+        <v>25.958333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2684,7 +2684,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E132" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E136" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2807,8 +2807,8 @@
         <v>18</v>
       </c>
       <c r="I14" s="4">
-        <f>SUM(E127:E135)</f>
-        <v>11.000000000000002</v>
+        <f>SUM(E127:E136)</f>
+        <v>18.333333333333332</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4421,6 +4421,55 @@
       <c r="E132" s="4">
         <f t="shared" si="0"/>
         <v>1.6666666666666674</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="5"/>
+      <c r="C133" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E133" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666519</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="C134" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E134" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333321</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="C135" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="E135" s="4">
+        <f t="shared" si="0"/>
+        <v>2.916666666666667</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="C136" s="2">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="E136" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6666666666666643</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -192,8 +192,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -217,7 +219,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -225,6 +227,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -232,6 +235,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,11 +386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128540744"/>
-        <c:axId val="2128543768"/>
+        <c:axId val="2070482296"/>
+        <c:axId val="2070486408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128540744"/>
+        <c:axId val="2070482296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,12 +399,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128543768"/>
+        <c:crossAx val="2070486408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128543768"/>
+        <c:axId val="2070486408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128540744"/>
+        <c:crossAx val="2070482296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -520,7 +524,7 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.33333333333333</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,11 +539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128573656"/>
-        <c:axId val="2128576680"/>
+        <c:axId val="2116655576"/>
+        <c:axId val="2116658600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128573656"/>
+        <c:axId val="2116655576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,12 +552,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128576680"/>
+        <c:crossAx val="2116658600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128576680"/>
+        <c:axId val="2116658600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -565,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128573656"/>
+        <c:crossAx val="2116655576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -978,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2590,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J136"/>
+  <dimension ref="B2:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2615,7 +2619,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>207.66666666666669</v>
+        <v>219.33333333333334</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2628,7 +2632,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>25.958333333333336</v>
+        <v>27.416666666666668</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2684,7 +2688,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E136" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E142" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2807,8 +2811,8 @@
         <v>18</v>
       </c>
       <c r="I14" s="4">
-        <f>SUM(E127:E136)</f>
-        <v>18.333333333333332</v>
+        <f>SUM(E127:E145)</f>
+        <v>30.000000000000004</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4268,6 +4272,9 @@
       </c>
     </row>
     <row r="121" spans="2:5">
+      <c r="B121" s="5">
+        <v>42943</v>
+      </c>
       <c r="C121" s="2">
         <v>0</v>
       </c>
@@ -4280,9 +4287,6 @@
       </c>
     </row>
     <row r="122" spans="2:5">
-      <c r="B122" s="5">
-        <v>42943</v>
-      </c>
       <c r="C122" s="2">
         <v>0.5625</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="129" spans="2:5">
+    <row r="129" spans="2:7">
       <c r="C129" s="2">
         <v>0.61111111111111105</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>0.16666666666666874</v>
       </c>
     </row>
-    <row r="130" spans="2:5">
+    <row r="130" spans="2:7">
       <c r="C130" s="2">
         <v>0.80555555555555547</v>
       </c>
@@ -4396,7 +4400,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="2:5">
+    <row r="131" spans="2:7">
       <c r="C131" s="2">
         <v>0.875</v>
       </c>
@@ -4408,7 +4412,7 @@
         <v>2.4999999999999991</v>
       </c>
     </row>
-    <row r="132" spans="2:5">
+    <row r="132" spans="2:7">
       <c r="B132" s="5">
         <v>42948</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>1.6666666666666674</v>
       </c>
     </row>
-    <row r="133" spans="2:5">
+    <row r="133" spans="2:7">
       <c r="B133" s="5"/>
       <c r="C133" s="2">
         <v>0.53125</v>
@@ -4436,7 +4440,7 @@
         <v>0.41666666666666519</v>
       </c>
     </row>
-    <row r="134" spans="2:5">
+    <row r="134" spans="2:7">
       <c r="C134" s="2">
         <v>0.58333333333333337</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>3.3333333333333321</v>
       </c>
     </row>
-    <row r="135" spans="2:5">
+    <row r="135" spans="2:7">
       <c r="C135" s="2">
         <v>0.76388888888888884</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>2.916666666666667</v>
       </c>
     </row>
-    <row r="136" spans="2:5">
+    <row r="136" spans="2:7">
       <c r="C136" s="2">
         <v>0.90277777777777779</v>
       </c>
@@ -4470,6 +4474,88 @@
       <c r="E136" s="4">
         <f t="shared" si="0"/>
         <v>0.6666666666666643</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="C137" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.98263888888888884</v>
+      </c>
+      <c r="E137" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="5">
+        <v>42949</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="E138" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="C139" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E139" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000178</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="C140" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="E140" s="4">
+        <f t="shared" si="0"/>
+        <v>2.916666666666667</v>
+      </c>
+      <c r="F140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="C141" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="E141" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4166666666666661</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="5">
+        <v>42950</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -524,7 +524,7 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.0</c:v>
+                  <c:v>31.16666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>219.33333333333334</v>
+        <v>220.5</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>27.416666666666668</v>
+        <v>27.5625</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="I14" s="4">
         <f>SUM(E127:E145)</f>
-        <v>30.000000000000004</v>
+        <v>31.166666666666671</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4551,11 +4551,11 @@
         <v>0</v>
       </c>
       <c r="D142" s="2">
-        <v>3.4722222222222224E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -386,11 +386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070482296"/>
-        <c:axId val="2070486408"/>
+        <c:axId val="-2129789976"/>
+        <c:axId val="-2129852808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070482296"/>
+        <c:axId val="-2129789976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,12 +399,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070486408"/>
+        <c:crossAx val="-2129852808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070486408"/>
+        <c:axId val="-2129852808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070482296"/>
+        <c:crossAx val="-2129789976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -524,7 +524,7 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.16666666666667</c:v>
+                  <c:v>33.83333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,11 +539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116655576"/>
-        <c:axId val="2116658600"/>
+        <c:axId val="-2129863528"/>
+        <c:axId val="-2129880392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116655576"/>
+        <c:axId val="-2129863528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,12 +552,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116658600"/>
+        <c:crossAx val="-2129880392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116658600"/>
+        <c:axId val="-2129880392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -569,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116655576"/>
+        <c:crossAx val="-2129863528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2594,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J142"/>
+  <dimension ref="B2:J144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>220.5</v>
+        <v>223.16666666666666</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>27.5625</v>
+        <v>27.895833333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2688,7 +2688,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E142" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E144" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="I14" s="4">
         <f>SUM(E127:E145)</f>
-        <v>31.166666666666671</v>
+        <v>33.833333333333336</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4551,11 +4551,35 @@
         <v>0</v>
       </c>
       <c r="D142" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="C143" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E143" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="C144" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E144" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666607</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -524,7 +524,7 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.83333333333334</c:v>
+                  <c:v>38.91666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2594,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J144"/>
+  <dimension ref="B2:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>223.16666666666666</v>
+        <v>228.25</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>27.895833333333336</v>
+        <v>28.531250000000004</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2688,7 +2688,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E144" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E145" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="I14" s="4">
         <f>SUM(E127:E145)</f>
-        <v>33.833333333333336</v>
+        <v>38.916666666666679</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4575,11 +4575,23 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="D144" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="0"/>
-        <v>0.91666666666666607</v>
+        <v>1.9166666666666679</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5">
+      <c r="C145" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0833333333333348</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -386,11 +386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129789976"/>
-        <c:axId val="-2129852808"/>
+        <c:axId val="2096466872"/>
+        <c:axId val="2096887224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129789976"/>
+        <c:axId val="2096466872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,12 +399,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129852808"/>
+        <c:crossAx val="2096887224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129852808"/>
+        <c:axId val="2096887224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129789976"/>
+        <c:crossAx val="2096466872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -524,7 +524,7 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.91666666666668</c:v>
+                  <c:v>39.91666666666668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,11 +539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129863528"/>
-        <c:axId val="-2129880392"/>
+        <c:axId val="2096172664"/>
+        <c:axId val="2096175688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129863528"/>
+        <c:axId val="2096172664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,12 +552,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129880392"/>
+        <c:crossAx val="2096175688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129880392"/>
+        <c:axId val="2096175688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -569,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129863528"/>
+        <c:crossAx val="2096172664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2594,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J145"/>
+  <dimension ref="B2:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>228.25</v>
+        <v>229.25</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>28.531250000000004</v>
+        <v>28.656250000000004</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2688,7 +2688,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E145" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E146" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2811,8 +2811,8 @@
         <v>18</v>
       </c>
       <c r="I14" s="4">
-        <f>SUM(E127:E145)</f>
-        <v>38.916666666666679</v>
+        <f>SUM(E127:E146)</f>
+        <v>39.916666666666679</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4582,7 +4582,7 @@
         <v>1.9166666666666679</v>
       </c>
     </row>
-    <row r="145" spans="3:5">
+    <row r="145" spans="2:5">
       <c r="C145" s="2">
         <v>0.60069444444444442</v>
       </c>
@@ -4592,6 +4592,21 @@
       <c r="E145" s="4">
         <f t="shared" si="0"/>
         <v>4.0833333333333348</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="5">
+        <v>42951</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -386,11 +386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096466872"/>
-        <c:axId val="2096887224"/>
+        <c:axId val="2128459720"/>
+        <c:axId val="2128462792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096466872"/>
+        <c:axId val="2128459720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,12 +399,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096887224"/>
+        <c:crossAx val="2128462792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096887224"/>
+        <c:axId val="2128462792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096466872"/>
+        <c:crossAx val="2128459720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -524,7 +524,7 @@
                   <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.91666666666668</c:v>
+                  <c:v>40.50000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,11 +539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2096172664"/>
-        <c:axId val="2096175688"/>
+        <c:axId val="2126481944"/>
+        <c:axId val="2126484904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2096172664"/>
+        <c:axId val="2126481944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,12 +552,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096175688"/>
+        <c:crossAx val="2126484904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2096175688"/>
+        <c:axId val="2126484904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -569,7 +569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096172664"/>
+        <c:crossAx val="2126481944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2596,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>229.25</v>
+        <v>229.83333333333334</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I21)</f>
-        <v>28.656250000000004</v>
+        <v>28.729166666666671</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="I14" s="4">
         <f>SUM(E127:E146)</f>
-        <v>39.916666666666679</v>
+        <v>40.500000000000014</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -4602,11 +4602,11 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="D146" s="2">
-        <v>0.46875</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E146" s="4">
         <f t="shared" si="0"/>
-        <v>1.0000000000000004</v>
+        <v>1.5833333333333344</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Sick</t>
+  </si>
+  <si>
+    <t>Need:</t>
   </si>
 </sst>
 </file>
@@ -386,11 +389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128459720"/>
-        <c:axId val="2128462792"/>
+        <c:axId val="2065585816"/>
+        <c:axId val="2065588888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128459720"/>
+        <c:axId val="2065585816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,12 +402,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128462792"/>
+        <c:crossAx val="2065588888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128462792"/>
+        <c:axId val="2065588888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128459720"/>
+        <c:crossAx val="2065585816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -526,6 +529,9 @@
                 <c:pt idx="7">
                   <c:v>40.50000000000001</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.916666666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -539,11 +545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126481944"/>
-        <c:axId val="2126484904"/>
+        <c:axId val="2065665688"/>
+        <c:axId val="2065668712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126481944"/>
+        <c:axId val="2065665688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,12 +558,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126484904"/>
+        <c:crossAx val="2065668712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126484904"/>
+        <c:axId val="2065668712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -569,7 +575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126481944"/>
+        <c:crossAx val="2065665688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2594,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J146"/>
+  <dimension ref="B2:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2619,7 +2625,10 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>229.83333333333334</v>
+        <v>234.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
       </c>
       <c r="F4">
         <f>3*4*16</f>
@@ -2631,8 +2640,8 @@
         <v>28</v>
       </c>
       <c r="C5" s="4">
-        <f>AVERAGE(I7:I21)</f>
-        <v>28.729166666666671</v>
+        <f>AVERAGE(I7:I16)</f>
+        <v>26.083333333333336</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2688,7 +2697,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E146" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E148" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2829,7 +2838,10 @@
       <c r="H15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4">
+        <f>SUM(E147:E158)</f>
+        <v>4.9166666666666679</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="5"/>
@@ -4607,6 +4619,33 @@
       <c r="E146" s="4">
         <f t="shared" si="0"/>
         <v>1.5833333333333344</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="5">
+        <v>42954</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E147" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1666666666666661</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="C148" s="2">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E148" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7500000000000018</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -389,11 +389,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065585816"/>
-        <c:axId val="2065588888"/>
+        <c:axId val="2087175656"/>
+        <c:axId val="2066011432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065585816"/>
+        <c:axId val="2087175656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,12 +402,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065588888"/>
+        <c:crossAx val="2066011432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065588888"/>
+        <c:axId val="2066011432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,7 +418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065585816"/>
+        <c:crossAx val="2087175656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -530,7 +530,7 @@
                   <c:v>40.50000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.916666666666667</c:v>
+                  <c:v>11.91666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,11 +545,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065665688"/>
-        <c:axId val="2065668712"/>
+        <c:axId val="2094009928"/>
+        <c:axId val="2094012888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065665688"/>
+        <c:axId val="2094009928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,12 +558,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065668712"/>
+        <c:crossAx val="2094012888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065668712"/>
+        <c:axId val="2094012888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -575,7 +575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065665688"/>
+        <c:crossAx val="2094009928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2600,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J148"/>
+  <dimension ref="B2:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>234.75</v>
+        <v>241.74999999999997</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I7:I16)</f>
-        <v>26.083333333333336</v>
+        <v>26.861111111111114</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2697,7 +2697,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" ref="E9:E148" si="0">(D9-C9)*24</f>
+        <f t="shared" ref="E9:E153" si="0">(D9-C9)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="I15" s="4">
         <f>SUM(E147:E158)</f>
-        <v>4.9166666666666679</v>
+        <v>11.916666666666661</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -4646,6 +4646,72 @@
       <c r="E148" s="4">
         <f t="shared" si="0"/>
         <v>1.7500000000000018</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="C149" s="2">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E149" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6666666666666643</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="5">
+        <v>42955</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E150" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="C151" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="E151" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666652</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="5">
+        <v>42956</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E152" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="C153" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E153" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666643</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Need:</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -389,11 +392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087175656"/>
-        <c:axId val="2066011432"/>
+        <c:axId val="2126308120"/>
+        <c:axId val="2126940888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087175656"/>
+        <c:axId val="2126308120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,12 +405,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2066011432"/>
+        <c:crossAx val="2126940888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2066011432"/>
+        <c:axId val="2126940888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,7 +421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087175656"/>
+        <c:crossAx val="2126308120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -463,7 +466,7 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>summer!$H$7:$H$21</c:f>
+              <c:f>summer!$H$9:$H$23</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -501,7 +504,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>summer!$I$7:$I$21</c:f>
+              <c:f>summer!$I$9:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -530,7 +533,7 @@
                   <c:v>40.50000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.91666666666666</c:v>
+                  <c:v>16.58333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,11 +548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094009928"/>
-        <c:axId val="2094012888"/>
+        <c:axId val="2126371176"/>
+        <c:axId val="2126374200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094009928"/>
+        <c:axId val="2126371176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,12 +561,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094012888"/>
+        <c:crossAx val="2126374200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094012888"/>
+        <c:axId val="2126374200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -575,7 +578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094009928"/>
+        <c:crossAx val="2126371176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -633,13 +636,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>465668</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>80434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>59268</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>97367</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2600,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J153"/>
+  <dimension ref="B2:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2625,7 +2628,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>241.74999999999997</v>
+        <v>246.41666666666666</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -2640,1572 +2643,1561 @@
         <v>28</v>
       </c>
       <c r="C5" s="4">
-        <f>AVERAGE(I7:I16)</f>
-        <v>26.861111111111114</v>
+        <f>AVERAGE(I9:I18)</f>
+        <v>27.379629629629633</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
+    <row r="6" spans="2:10">
+      <c r="C6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C4+hours!C4</f>
+        <v>360.65</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="4">
-        <f>SUM(E8:E27)</f>
+      <c r="I9" s="4">
+        <f>SUM(E10:E29)</f>
         <v>31.166666666666671</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="1">
+    <row r="10" spans="2:10">
+      <c r="B10" s="1">
         <v>42898</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>0.37847222222222227</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>0.5</v>
       </c>
-      <c r="E8" s="4">
-        <f>(D8-C8)*24</f>
+      <c r="E10" s="4">
+        <f>(D10-C10)*24</f>
         <v>2.9166666666666656</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4">
-        <f>SUM(E28:E47)</f>
+      <c r="I10" s="4">
+        <f>SUM(E30:E49)</f>
         <v>28.750000000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="C9" s="2">
+    <row r="11" spans="2:10">
+      <c r="C11" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D11" s="2">
         <v>0.62152777777777779</v>
       </c>
-      <c r="E9" s="4">
-        <f t="shared" ref="E9:E153" si="0">(D9-C9)*24</f>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:E160" si="0">(D11-C11)*24</f>
         <v>2.4166666666666661</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="4">
-        <f>SUM(E48:E62)</f>
+      <c r="I11" s="4">
+        <f>SUM(E50:E64)</f>
         <v>29.083333333333336</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="2">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9166666666666696</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="4">
-        <f>SUM(E63:E75)</f>
-        <v>25.333333333333336</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="5">
-        <v>42899</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4166666666666661</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="4">
-        <f>SUM(E76:E91)</f>
-        <v>28.333333333333329</v>
-      </c>
-      <c r="J11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="5"/>
       <c r="C12" s="2">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666696</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM(E65:E77)</f>
+        <v>25.333333333333336</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="5">
+        <v>42899</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4166666666666661</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="4">
+        <f>SUM(E78:E93)</f>
+        <v>28.333333333333329</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="5"/>
+      <c r="C14" s="2">
         <v>0.52430555555555558</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>0.24999999999999911</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="4">
-        <f>SUM(E92:E108)</f>
+      <c r="I14" s="4">
+        <f>SUM(E94:E110)</f>
         <v>16.666666666666657</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="5"/>
-      <c r="C13" s="2">
+    <row r="15" spans="2:10">
+      <c r="B15" s="5"/>
+      <c r="C15" s="2">
         <v>0.55902777777777779</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="2">
         <v>0.58680555555555558</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>0.66666666666666696</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="4">
-        <f>SUM(E109:E126)</f>
+      <c r="I15" s="4">
+        <f>SUM(E111:E128)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="C14" s="2">
+    <row r="16" spans="2:10">
+      <c r="C16" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000000000018</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="4">
-        <f>SUM(E127:E146)</f>
+      <c r="I16" s="4">
+        <f>SUM(E129:E148)</f>
         <v>40.500000000000014</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="C15" s="2">
+    <row r="17" spans="2:9">
+      <c r="C17" s="2">
         <v>0.66319444444444442</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D17" s="2">
         <v>0.70486111111111116</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000000000018</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="4">
-        <f>SUM(E147:E158)</f>
-        <v>11.916666666666661</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="2">
+      <c r="I17" s="4">
+        <f>SUM(E149:E160)</f>
+        <v>16.583333333333332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="5"/>
+      <c r="C18" s="2">
         <v>0.74652777777777779</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D18" s="2">
         <v>0.82986111111111116</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="5">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5">
         <v>42900</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C19" s="2">
         <v>0.40625</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>0.66666666666666563</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="C18" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="5"/>
-      <c r="C19" s="2">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0833333333333348</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9">
       <c r="C20" s="2">
-        <v>0.63194444444444442</v>
+        <v>0.4375</v>
       </c>
       <c r="D20" s="2">
-        <v>0.71527777777777779</v>
+        <v>0.5</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>2.0000000000000009</v>
+        <v>1.5</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5"/>
       <c r="C21" s="2">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0833333333333348</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="5"/>
+      <c r="C23" s="2">
         <v>0.75347222222222221</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D23" s="2">
         <v>0.85069444444444453</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>2.3333333333333357</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="5">
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="5">
         <v>42901</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C24" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24" s="2">
         <v>0.8125</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="5">
+    <row r="25" spans="2:9">
+      <c r="B25" s="5">
         <v>42902</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25" s="2">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25" s="2">
         <v>0.40625</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666652</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="5"/>
-      <c r="C24" s="2">
-        <v>0.43402777777777773</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="0"/>
-        <v>1.1666666666666679</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="5"/>
-      <c r="C25" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9999999999999982</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="5"/>
       <c r="C26" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666679</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="5"/>
+      <c r="C27" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999982</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="5"/>
+      <c r="C28" s="2">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D28" s="2">
         <v>0.64930555555555558</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="5">
+    <row r="29" spans="2:9">
+      <c r="B29" s="5">
         <v>42904</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C29" s="2">
         <v>0.65972222222222221</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D29" s="2">
         <v>0.68402777777777779</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333393</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="5">
+    <row r="30" spans="2:9">
+      <c r="B30" s="5">
         <v>42905</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="2">
         <v>0.375</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>0.4513888888888889</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>1.8333333333333335</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="C29" s="2">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E29" s="4">
-        <f t="shared" si="0"/>
-        <v>1.416666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="5"/>
-      <c r="C30" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="E30" s="4">
-        <f t="shared" si="0"/>
-        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="C31" s="2">
-        <v>0.59375</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D31" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="0"/>
-        <v>0.41666666666666519</v>
+        <v>1.416666666666667</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="5"/>
       <c r="C32" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="C33" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666519</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="5"/>
+      <c r="C34" s="2">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="2">
         <v>0.69097222222222221</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E34" s="4">
         <f t="shared" si="0"/>
         <v>1.3333333333333339</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="5">
+    <row r="35" spans="2:6">
+      <c r="B35" s="5">
         <v>42906</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C35" s="2">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D35" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E35" s="4">
         <f t="shared" si="0"/>
         <v>1.0000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
-      <c r="C34" s="2">
+    <row r="36" spans="2:6">
+      <c r="C36" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D36" s="2">
         <v>0.4861111111111111</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E36" s="4">
         <f t="shared" si="0"/>
         <v>0.91666666666666607</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="C35" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.60069444444444442</v>
-      </c>
-      <c r="E35" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9166666666666652</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="5"/>
-      <c r="C36" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="E36" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000018</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="C37" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666652</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="5"/>
+      <c r="C38" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="C39" s="2">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D39" s="2">
         <v>0.69791666666666663</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E39" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666785</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="5">
+    <row r="40" spans="2:6">
+      <c r="B40" s="5">
         <v>42907</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C40" s="2">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>0.40972222222222227</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E40" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333481</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="5"/>
-      <c r="C39" s="2">
+    <row r="41" spans="2:6">
+      <c r="B41" s="5"/>
+      <c r="C41" s="2">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D41" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E41" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333215</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="5"/>
-      <c r="C40" s="2">
+    <row r="42" spans="2:6">
+      <c r="B42" s="5"/>
+      <c r="C42" s="2">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D42" s="2">
         <v>0.5</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E42" s="4">
         <f t="shared" si="0"/>
         <v>1.3333333333333339</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
-      <c r="C41" s="2">
+    <row r="43" spans="2:6">
+      <c r="C43" s="2">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D43" s="2">
         <v>0.56944444444444442</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E43" s="4">
         <f t="shared" si="0"/>
         <v>1.416666666666667</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F43" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="C42" s="2">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E42" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333348</v>
-      </c>
-      <c r="F42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="5">
-        <v>42908</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="E43" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9999999999999996</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="C44" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333348</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="5">
+        <v>42908</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="C46" s="2">
         <v>0.5</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D46" s="2">
         <v>0.55555555555555558</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E46" s="4">
         <f t="shared" si="0"/>
         <v>1.3333333333333339</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="5"/>
-      <c r="C45" s="2">
+    <row r="47" spans="2:6">
+      <c r="B47" s="5"/>
+      <c r="C47" s="2">
         <v>0.58680555555555558</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D47" s="2">
         <v>0.67708333333333337</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E47" s="4">
         <f t="shared" si="0"/>
         <v>2.166666666666667</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="5">
-        <v>42909</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="C47" s="2">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="0"/>
-        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="5">
-        <v>42912</v>
+        <v>42909</v>
       </c>
       <c r="C48" s="2">
-        <v>0.37847222222222227</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D48" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="0"/>
-        <v>3.4166666666666665</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="5"/>
       <c r="C49" s="2">
         <v>0.52777777777777779</v>
       </c>
       <c r="D49" s="2">
-        <v>0.53472222222222221</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="E49" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666607</v>
+        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="50" spans="2:6">
+      <c r="B50" s="5">
+        <v>42912</v>
+      </c>
       <c r="C50" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.37847222222222227</v>
       </c>
       <c r="D50" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E50" s="4">
         <f t="shared" si="0"/>
-        <v>1.0000000000000018</v>
+        <v>3.4166666666666665</v>
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="5">
-        <v>42913</v>
-      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="2">
-        <v>0.38194444444444442</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="D51" s="2">
         <v>0.53472222222222221</v>
       </c>
       <c r="E51" s="4">
         <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="C52" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000018</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="5">
+        <v>42913</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="0"/>
         <v>3.666666666666667</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="5"/>
-      <c r="C52" s="2">
+    <row r="54" spans="2:6">
+      <c r="B54" s="5"/>
+      <c r="C54" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D54" s="2">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E54" s="4">
         <f t="shared" si="0"/>
         <v>1.583333333333333</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="5"/>
-      <c r="C53" s="2">
+    <row r="55" spans="2:6">
+      <c r="B55" s="5"/>
+      <c r="C55" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D55" s="2">
         <v>0.73611111111111116</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E55" s="4">
         <f t="shared" si="0"/>
         <v>2.166666666666667</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="5">
+    <row r="56" spans="2:6">
+      <c r="B56" s="5">
         <v>42914</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C56" s="2">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D56" s="2">
         <v>0.54513888888888895</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E56" s="4">
         <f t="shared" si="0"/>
         <v>3.9166666666666687</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
-      <c r="C55" s="2">
+    <row r="57" spans="2:6">
+      <c r="C57" s="2">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D57" s="2">
         <v>0.58680555555555558</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E57" s="4">
         <f t="shared" si="0"/>
         <v>0.16666666666666874</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="5"/>
-      <c r="C56" s="2">
+    <row r="58" spans="2:6">
+      <c r="B58" s="5"/>
+      <c r="C58" s="2">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D58" s="2">
         <v>0.61111111111111105</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E58" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333215</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="5">
+    <row r="59" spans="2:6">
+      <c r="B59" s="5">
         <v>42915</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C59" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D59" s="2">
         <v>0.44791666666666669</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E59" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666652</v>
-      </c>
-      <c r="F57" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="C58" s="2">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="E58" s="4">
-        <f t="shared" si="0"/>
-        <v>5.4166666666666661</v>
-      </c>
-      <c r="F58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="C59" s="2">
-        <v>0.76736111111111116</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="E59" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7499999999999991</v>
       </c>
       <c r="F59" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="5">
-        <v>42916</v>
-      </c>
       <c r="C60" s="2">
-        <v>0.375</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="D60" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.75</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="0"/>
-        <v>2.7499999999999996</v>
+        <v>5.4166666666666661</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="C61" s="2">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999991</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="5">
+        <v>42916</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7499999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="C63" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D63" s="2">
         <v>0.625</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E63" s="4">
         <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
-      <c r="C62" s="2">
+    <row r="64" spans="2:6">
+      <c r="C64" s="2">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D64" s="2">
         <v>0.63888888888888895</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E64" s="4">
         <f t="shared" si="0"/>
         <v>8.3333333333335702E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="5">
+    <row r="65" spans="2:7">
+      <c r="B65" s="5">
         <v>42919</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C65" s="2">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D65" s="2">
         <v>0.42708333333333331</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E65" s="4">
         <f t="shared" si="0"/>
         <v>1.0833333333333335</v>
       </c>
     </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="5">
+    <row r="66" spans="2:7">
+      <c r="B66" s="5">
         <v>42920</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C66" s="2">
         <v>0.59375</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D66" s="2">
         <v>0.70486111111111116</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E66" s="4">
         <f t="shared" si="0"/>
         <v>2.6666666666666679</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
-      <c r="C65" s="2">
+    <row r="67" spans="2:7">
+      <c r="C67" s="2">
         <v>0.71180555555555547</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D67" s="2">
         <v>0.77777777777777779</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E67" s="4">
         <f t="shared" si="0"/>
         <v>1.5833333333333357</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F67" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="C66" s="2">
-        <v>0.78819444444444453</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="E66" s="4">
-        <f t="shared" si="0"/>
-        <v>0.6666666666666643</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="5">
-        <v>42921</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="E67" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6666666666666652</v>
       </c>
     </row>
     <row r="68" spans="2:7">
       <c r="C68" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6666666666666643</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="5">
+        <v>42921</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666652</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="C70" s="2">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D70" s="2">
         <v>0.78472222222222221</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E70" s="4">
         <f t="shared" si="0"/>
         <v>3.1666666666666661</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="5"/>
-      <c r="C69" s="2">
+    <row r="71" spans="2:7">
+      <c r="B71" s="5"/>
+      <c r="C71" s="2">
         <v>0.875</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D71" s="2">
         <v>0.95486111111111116</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E71" s="4">
         <f t="shared" si="0"/>
         <v>1.9166666666666679</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="5">
+    <row r="72" spans="2:7">
+      <c r="B72" s="5">
         <v>42922</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C72" s="2">
         <v>0.375</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D72" s="2">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E72" s="4">
         <f t="shared" si="0"/>
         <v>1.1666666666666665</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
-      <c r="C71" s="2">
+    <row r="73" spans="2:7">
+      <c r="C73" s="2">
         <v>0.4375</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D73" s="2">
         <v>0.50694444444444442</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E73" s="4">
         <f t="shared" si="0"/>
         <v>1.6666666666666661</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
-      <c r="C72" s="2">
+    <row r="74" spans="2:7">
+      <c r="C74" s="2">
         <v>0.51736111111111105</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D74" s="2">
         <v>0.67361111111111116</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E74" s="4">
         <f t="shared" si="0"/>
         <v>3.7500000000000027</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="5">
-        <v>42923</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0.46875</v>
-      </c>
-      <c r="E73" s="4">
-        <f t="shared" si="0"/>
-        <v>2.1666666666666656</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="5"/>
-      <c r="C74" s="2">
-        <v>0.50694444444444442</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="E74" s="4">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333339</v>
       </c>
     </row>
     <row r="75" spans="2:7">
       <c r="B75" s="5">
+        <v>42923</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666656</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="5"/>
+      <c r="C76" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="5">
         <v>42925</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C77" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D77" s="2">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E77" s="4">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="5">
+    <row r="78" spans="2:7">
+      <c r="B78" s="5">
         <v>42926</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C78" s="2">
         <v>0.34722222222222227</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D78" s="2">
         <v>0.3611111111111111</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E78" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333215</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="5"/>
-      <c r="C77" s="2">
+    <row r="79" spans="2:7">
+      <c r="B79" s="5"/>
+      <c r="C79" s="2">
         <v>0.37152777777777773</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D79" s="2">
         <v>0.55208333333333337</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E79" s="4">
         <f t="shared" si="0"/>
         <v>4.3333333333333357</v>
       </c>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="C78" s="2">
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="C80" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D80" s="2">
         <v>0.61458333333333337</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E80" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="C79" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="E79" s="4">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333215</v>
-      </c>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="5">
-        <v>42927</v>
-      </c>
-      <c r="C80" s="2">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E80" s="4">
-        <f t="shared" si="0"/>
-        <v>1.416666666666667</v>
-      </c>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="2:7">
       <c r="C81" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="5">
+        <v>42927</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="0"/>
+        <v>1.416666666666667</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="C83" s="2">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D83" s="2">
         <v>0.79513888888888884</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E83" s="4">
         <f t="shared" si="0"/>
         <v>3.4999999999999982</v>
       </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="C82" s="2">
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="E82" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333335702E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="5">
-        <v>42928</v>
-      </c>
-      <c r="C83" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E83" s="4">
-        <f t="shared" si="0"/>
-        <v>3.7499999999999987</v>
-      </c>
-      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="2:7">
       <c r="C84" s="2">
-        <v>0.59375</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="D84" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.80902777777777779</v>
       </c>
       <c r="E84" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
+        <v>8.3333333333335702E-2</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="5">
+        <v>42928</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7499999999999987</v>
+      </c>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="C86" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="5">
         <v>42929</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C87" s="2">
         <v>0.51388888888888895</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D87" s="2">
         <v>0.53472222222222221</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E87" s="4">
         <f t="shared" si="0"/>
         <v>0.49999999999999822</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="5">
+    <row r="88" spans="2:7">
+      <c r="B88" s="5">
         <v>42930</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C88" s="2">
         <v>0.37847222222222227</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D88" s="2">
         <v>0.40277777777777773</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E88" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333126</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="5"/>
-      <c r="C87" s="2">
+    <row r="89" spans="2:7">
+      <c r="B89" s="5"/>
+      <c r="C89" s="2">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D89" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E89" s="4">
         <f t="shared" si="0"/>
         <v>1.6666666666666661</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="5"/>
-      <c r="C88" s="2">
+    <row r="90" spans="2:7">
+      <c r="B90" s="5"/>
+      <c r="C90" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D90" s="2">
         <v>0.79861111111111116</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E90" s="4">
         <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="5">
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="5">
         <v>42932</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C91" s="2">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D91" s="2">
         <v>0.55555555555555558</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E91" s="4">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
-      <c r="C90" s="2">
+    <row r="92" spans="2:7">
+      <c r="C92" s="2">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D92" s="2">
         <v>0.74305555555555547</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E92" s="4">
         <f t="shared" si="0"/>
         <v>0.99999999999999911</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="5"/>
-      <c r="C91" s="2">
+    <row r="93" spans="2:7">
+      <c r="B93" s="5"/>
+      <c r="C93" s="2">
         <v>0.75</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D93" s="2">
         <v>0.78819444444444453</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E93" s="4">
         <f t="shared" si="0"/>
         <v>0.91666666666666874</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="5">
+    <row r="94" spans="2:7">
+      <c r="B94" s="5">
         <v>42933</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C94" s="2">
         <v>0.375</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D94" s="2">
         <v>0.49652777777777773</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E94" s="4">
         <f t="shared" si="0"/>
         <v>2.9166666666666656</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
-      <c r="C93" s="2">
+    <row r="95" spans="2:7">
+      <c r="C95" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D95" s="2">
         <v>0.59027777777777779</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E95" s="4">
         <f t="shared" si="0"/>
         <v>1.1666666666666679</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="C94" s="2">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0.79513888888888884</v>
-      </c>
-      <c r="E94" s="4">
-        <f t="shared" si="0"/>
-        <v>1.7499999999999991</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="5">
-        <v>42934</v>
-      </c>
-      <c r="C95" s="2">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="E95" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3333333333331705E-2</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="C96" s="2">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7499999999999991</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="5">
+        <v>42934</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333331705E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="C98" s="2">
         <v>0.4548611111111111</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D98" s="2">
         <v>0.53125</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E98" s="4">
         <f t="shared" si="0"/>
         <v>1.8333333333333335</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="5"/>
-      <c r="C97" s="2">
+    <row r="99" spans="2:5">
+      <c r="B99" s="5"/>
+      <c r="C99" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D99" s="2">
         <v>0.56597222222222221</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E99" s="4">
         <f t="shared" si="0"/>
         <v>0.58333333333333393</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="5">
+    <row r="100" spans="2:5">
+      <c r="B100" s="5">
         <v>42935</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C100" s="2">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D100" s="2">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E100" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333215</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
-      <c r="C99" s="2">
+    <row r="101" spans="2:5">
+      <c r="C101" s="2">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D101" s="2">
         <v>0.48958333333333331</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E101" s="4">
         <f t="shared" si="0"/>
         <v>1.4166666666666656</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="5"/>
-      <c r="C100" s="2">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0.64236111111111105</v>
-      </c>
-      <c r="E100" s="4">
-        <f t="shared" si="0"/>
-        <v>2.8333333333333313</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="5">
-        <v>42937</v>
-      </c>
-      <c r="C101" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="E101" s="4">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333339</v>
       </c>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="5"/>
       <c r="C102" s="2">
-        <v>0.59722222222222221</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="D102" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="E102" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666607</v>
+        <v>2.8333333333333313</v>
       </c>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="5"/>
+      <c r="B103" s="5">
+        <v>42937</v>
+      </c>
       <c r="C103" s="2">
-        <v>0.62152777777777779</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D103" s="2">
-        <v>0.63541666666666663</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E103" s="4">
         <f t="shared" si="0"/>
-        <v>0.33333333333333215</v>
+        <v>1.3333333333333339</v>
       </c>
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="5"/>
       <c r="C104" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="5"/>
+      <c r="C105" s="2">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333215</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="5"/>
+      <c r="C106" s="2">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D106" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E106" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333215</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="C105" s="2">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="D105" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="E105" s="4">
-        <f t="shared" si="0"/>
-        <v>0.24999999999999911</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="5">
-        <v>42939</v>
-      </c>
-      <c r="C106" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0.40277777777777773</v>
-      </c>
-      <c r="E106" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666607</v>
       </c>
     </row>
     <row r="107" spans="2:5">
       <c r="C107" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999911</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="5">
+        <v>42939</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666607</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="C109" s="2">
         <v>0.75</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D109" s="2">
         <v>0.77777777777777779</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E109" s="4">
         <f t="shared" si="0"/>
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
-      <c r="C108" s="2">
+    <row r="110" spans="2:5">
+      <c r="C110" s="2">
         <v>0.84722222222222221</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D110" s="2">
         <v>0.86805555555555547</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E110" s="4">
         <f t="shared" si="0"/>
         <v>0.49999999999999822</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="5">
+    <row r="111" spans="2:5">
+      <c r="B111" s="5">
         <v>42940</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C111" s="2">
         <v>0.375</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D111" s="2">
         <v>0.4513888888888889</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E111" s="4">
         <f t="shared" si="0"/>
         <v>1.8333333333333335</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="5"/>
-      <c r="C110" s="2">
+    <row r="112" spans="2:5">
+      <c r="B112" s="5"/>
+      <c r="C112" s="2">
         <v>0.5</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D112" s="2">
         <v>0.51388888888888895</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E112" s="4">
         <f t="shared" si="0"/>
         <v>0.33333333333333481</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="C111" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="D111" s="2">
-        <v>0.58680555555555558</v>
-      </c>
-      <c r="E111" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0833333333333348</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="C112" s="2">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D112" s="2">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="E112" s="4">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333339</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="C113" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D113" s="2">
-        <v>0.78125</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="E113" s="4">
         <f t="shared" si="0"/>
-        <v>1.7499999999999991</v>
+        <v>1.0833333333333348</v>
       </c>
     </row>
     <row r="114" spans="2:5">
-      <c r="B114" s="5">
-        <v>42941</v>
-      </c>
       <c r="C114" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D114" s="2">
-        <v>0.70486111111111116</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="E114" s="4">
         <f t="shared" si="0"/>
-        <v>3.2500000000000018</v>
+        <v>2.0833333333333339</v>
       </c>
     </row>
     <row r="115" spans="2:5">
@@ -4213,163 +4205,163 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D115" s="2">
-        <v>0.76388888888888884</v>
+        <v>0.78125</v>
       </c>
       <c r="E115" s="4">
         <f t="shared" si="0"/>
-        <v>1.3333333333333313</v>
+        <v>1.7499999999999991</v>
       </c>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="5">
-        <v>42942</v>
+        <v>42941</v>
       </c>
       <c r="C116" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="D116" s="2">
-        <v>0.4548611111111111</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E116" s="4">
         <f t="shared" si="0"/>
-        <v>0.91666666666666607</v>
+        <v>3.2500000000000018</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="C117" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D117" s="2">
-        <v>0.57986111111111105</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="E117" s="4">
         <f t="shared" si="0"/>
-        <v>1.4166666666666643</v>
+        <v>1.3333333333333313</v>
       </c>
     </row>
     <row r="118" spans="2:5">
+      <c r="B118" s="5">
+        <v>42942</v>
+      </c>
       <c r="C118" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D118" s="2">
-        <v>0.79166666666666663</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="E118" s="4">
         <f t="shared" si="0"/>
-        <v>4.3333333333333339</v>
+        <v>0.91666666666666607</v>
       </c>
     </row>
     <row r="119" spans="2:5">
       <c r="C119" s="2">
-        <v>0.85763888888888884</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="D119" s="2">
-        <v>0.9375</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="E119" s="4">
         <f t="shared" si="0"/>
-        <v>1.9166666666666679</v>
+        <v>1.4166666666666643</v>
       </c>
     </row>
     <row r="120" spans="2:5">
       <c r="C120" s="2">
-        <v>0.96180555555555547</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D120" s="2">
-        <v>0.99652777777777779</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E120" s="4">
         <f t="shared" si="0"/>
-        <v>0.8333333333333357</v>
+        <v>4.3333333333333339</v>
       </c>
     </row>
     <row r="121" spans="2:5">
-      <c r="B121" s="5">
-        <v>42943</v>
-      </c>
       <c r="C121" s="2">
-        <v>0</v>
+        <v>0.85763888888888884</v>
       </c>
       <c r="D121" s="2">
-        <v>6.25E-2</v>
+        <v>0.9375</v>
       </c>
       <c r="E121" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1.9166666666666679</v>
       </c>
     </row>
     <row r="122" spans="2:5">
       <c r="C122" s="2">
-        <v>0.5625</v>
+        <v>0.96180555555555547</v>
       </c>
       <c r="D122" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.99652777777777779</v>
       </c>
       <c r="E122" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666607</v>
+        <v>0.8333333333333357</v>
       </c>
     </row>
     <row r="123" spans="2:5">
+      <c r="B123" s="5">
+        <v>42943</v>
+      </c>
       <c r="C123" s="2">
-        <v>0.57638888888888895</v>
+        <v>0</v>
       </c>
       <c r="D123" s="2">
-        <v>0.75</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E123" s="4">
         <f t="shared" si="0"/>
-        <v>4.1666666666666652</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="C124" s="2">
-        <v>0.81944444444444453</v>
+        <v>0.5625</v>
       </c>
       <c r="D124" s="2">
-        <v>0.86111111111111116</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E124" s="4">
         <f t="shared" si="0"/>
-        <v>0.99999999999999911</v>
+        <v>0.16666666666666607</v>
       </c>
     </row>
     <row r="125" spans="2:5">
-      <c r="B125" s="5">
-        <v>42944</v>
-      </c>
       <c r="C125" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D125" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.75</v>
       </c>
       <c r="E125" s="4">
         <f t="shared" si="0"/>
-        <v>0.66666666666666563</v>
+        <v>4.1666666666666652</v>
       </c>
     </row>
     <row r="126" spans="2:5">
       <c r="C126" s="2">
-        <v>0.59722222222222221</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="D126" s="2">
-        <v>0.65625</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="E126" s="4">
         <f t="shared" si="0"/>
-        <v>1.416666666666667</v>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="5">
-        <v>42947</v>
+        <v>42944</v>
       </c>
       <c r="C127" s="2">
-        <v>0.34375</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D127" s="2">
-        <v>0.37152777777777773</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="E127" s="4">
         <f t="shared" si="0"/>
@@ -4378,340 +4370,430 @@
     </row>
     <row r="128" spans="2:5">
       <c r="C128" s="2">
-        <v>0.375</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D128" s="2">
-        <v>0.5625</v>
+        <v>0.65625</v>
       </c>
       <c r="E128" s="4">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>1.416666666666667</v>
       </c>
     </row>
     <row r="129" spans="2:7">
+      <c r="B129" s="5">
+        <v>42947</v>
+      </c>
       <c r="C129" s="2">
-        <v>0.61111111111111105</v>
+        <v>0.34375</v>
       </c>
       <c r="D129" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="E129" s="4">
         <f t="shared" si="0"/>
-        <v>0.16666666666666874</v>
+        <v>0.66666666666666563</v>
       </c>
     </row>
     <row r="130" spans="2:7">
       <c r="C130" s="2">
-        <v>0.80555555555555547</v>
+        <v>0.375</v>
       </c>
       <c r="D130" s="2">
-        <v>0.86805555555555547</v>
+        <v>0.5625</v>
       </c>
       <c r="E130" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="131" spans="2:7">
       <c r="C131" s="2">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E131" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666874</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="C132" s="2">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="E132" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="C133" s="2">
         <v>0.875</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D133" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E133" s="4">
         <f t="shared" si="0"/>
         <v>2.4999999999999991</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
-      <c r="B132" s="5">
+    <row r="134" spans="2:7">
+      <c r="B134" s="5">
         <v>42948</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C134" s="2">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D134" s="2">
         <v>0.50347222222222221</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E134" s="4">
         <f t="shared" si="0"/>
         <v>1.6666666666666674</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
-      <c r="B133" s="5"/>
-      <c r="C133" s="2">
+    <row r="135" spans="2:7">
+      <c r="B135" s="5"/>
+      <c r="C135" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D135" s="2">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E135" s="4">
         <f t="shared" si="0"/>
         <v>0.41666666666666519</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7">
-      <c r="C134" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="E134" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333321</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="C135" s="2">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="E135" s="4">
-        <f t="shared" si="0"/>
-        <v>2.916666666666667</v>
       </c>
     </row>
     <row r="136" spans="2:7">
       <c r="C136" s="2">
-        <v>0.90277777777777779</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D136" s="2">
-        <v>0.93055555555555547</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E136" s="4">
         <f t="shared" si="0"/>
-        <v>0.6666666666666643</v>
+        <v>3.3333333333333321</v>
       </c>
     </row>
     <row r="137" spans="2:7">
       <c r="C137" s="2">
-        <v>0.95138888888888884</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="D137" s="2">
-        <v>0.98263888888888884</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="E137" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="G137" s="4"/>
+        <v>2.916666666666667</v>
+      </c>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="5">
-        <v>42949</v>
-      </c>
       <c r="C138" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="D138" s="2">
-        <v>0.49652777777777773</v>
+        <v>0.93055555555555547</v>
       </c>
       <c r="E138" s="4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.6666666666666643</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="C139" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="D139" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.98263888888888884</v>
       </c>
       <c r="E139" s="4">
         <f t="shared" si="0"/>
-        <v>0.25000000000000178</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="G139" s="4"/>
     </row>
     <row r="140" spans="2:7">
+      <c r="B140" s="5">
+        <v>42949</v>
+      </c>
       <c r="C140" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="D140" s="2">
-        <v>0.66319444444444442</v>
+        <v>0.49652777777777773</v>
       </c>
       <c r="E140" s="4">
         <f t="shared" si="0"/>
-        <v>2.916666666666667</v>
-      </c>
-      <c r="F140" t="s">
-        <v>16</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="C141" s="2">
-        <v>0.77083333333333337</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="D141" s="2">
-        <v>0.99652777777777779</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E141" s="4">
         <f t="shared" si="0"/>
-        <v>5.4166666666666661</v>
+        <v>0.25000000000000178</v>
       </c>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="5">
-        <v>42950</v>
-      </c>
       <c r="C142" s="2">
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D142" s="2">
-        <v>0.125</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="E142" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.916666666666667</v>
+      </c>
+      <c r="F142" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="C143" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D143" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.99652777777777779</v>
       </c>
       <c r="E143" s="4">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>5.4166666666666661</v>
       </c>
     </row>
     <row r="144" spans="2:7">
+      <c r="B144" s="5">
+        <v>42950</v>
+      </c>
       <c r="C144" s="2">
-        <v>0.50347222222222221</v>
+        <v>0</v>
       </c>
       <c r="D144" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.125</v>
       </c>
       <c r="E144" s="4">
         <f t="shared" si="0"/>
-        <v>1.9166666666666679</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="2:5">
       <c r="C145" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E145" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="C146" s="2">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E146" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666679</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="C147" s="2">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D147" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E147" s="4">
         <f t="shared" si="0"/>
         <v>4.0833333333333348</v>
       </c>
     </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="5">
+    <row r="148" spans="2:5">
+      <c r="B148" s="5">
         <v>42951</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C148" s="2">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D148" s="2">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E148" s="4">
         <f t="shared" si="0"/>
         <v>1.5833333333333344</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="5">
+    <row r="149" spans="2:5">
+      <c r="B149" s="5">
         <v>42954</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C149" s="2">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D149" s="2">
         <v>0.625</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E149" s="4">
         <f t="shared" si="0"/>
         <v>3.1666666666666661</v>
       </c>
     </row>
-    <row r="148" spans="2:5">
-      <c r="C148" s="2">
+    <row r="150" spans="2:5">
+      <c r="C150" s="2">
         <v>0.64236111111111105</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D150" s="2">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E150" s="4">
         <f t="shared" si="0"/>
         <v>1.7500000000000018</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="C149" s="2">
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0.82638888888888884</v>
-      </c>
-      <c r="E149" s="4">
-        <f t="shared" si="0"/>
-        <v>0.6666666666666643</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="5">
-        <v>42955</v>
-      </c>
-      <c r="C150" s="2">
-        <v>0.50347222222222221</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="E150" s="4">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666607</v>
       </c>
     </row>
     <row r="151" spans="2:5">
       <c r="C151" s="2">
-        <v>0.51388888888888895</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="D151" s="2">
-        <v>0.59375</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="E151" s="4">
         <f t="shared" si="0"/>
-        <v>1.9166666666666652</v>
+        <v>0.6666666666666643</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="5">
-        <v>42956</v>
+        <v>42955</v>
       </c>
       <c r="C152" s="2">
-        <v>0.52777777777777779</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="D152" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E152" s="4">
         <f t="shared" si="0"/>
-        <v>1.3333333333333339</v>
+        <v>0.16666666666666607</v>
       </c>
     </row>
     <row r="153" spans="2:5">
       <c r="C153" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="E153" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9166666666666652</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="5">
+        <v>42956</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E154" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333339</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="C155" s="2">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D153" s="2">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="E153" s="4">
-        <f t="shared" si="0"/>
-        <v>2.9166666666666643</v>
+      <c r="D155" s="2">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="E155" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8333333333333339</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="5">
+        <v>42957</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="E156" s="4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="C157" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E157" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="C158" s="2">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E158" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666679</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="C159" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="E159" s="4">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="C160" s="2">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E160" s="4">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333304</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -392,11 +392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126308120"/>
-        <c:axId val="2126940888"/>
+        <c:axId val="2145165176"/>
+        <c:axId val="2145168184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126308120"/>
+        <c:axId val="2145165176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,12 +405,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126940888"/>
+        <c:crossAx val="2145168184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126940888"/>
+        <c:axId val="2145168184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126308120"/>
+        <c:crossAx val="2145165176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -548,11 +548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2126371176"/>
-        <c:axId val="2126374200"/>
+        <c:axId val="2143302840"/>
+        <c:axId val="2143296712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2126371176"/>
+        <c:axId val="2143302840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,12 +561,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126374200"/>
+        <c:crossAx val="2143296712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2126374200"/>
+        <c:axId val="2143296712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -578,7 +578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126371176"/>
+        <c:crossAx val="2143302840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2603,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J160"/>
+  <dimension ref="B2:J161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D161" sqref="D161"/>
@@ -4794,6 +4794,14 @@
       <c r="E160" s="4">
         <f t="shared" si="0"/>
         <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="5">
+        <v>42958</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0.52430555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -392,11 +392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2145165176"/>
-        <c:axId val="2145168184"/>
+        <c:axId val="2121721880"/>
+        <c:axId val="2121725432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2145165176"/>
+        <c:axId val="2121721880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,12 +405,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145168184"/>
+        <c:crossAx val="2121725432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2145168184"/>
+        <c:axId val="2121725432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,7 +421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145165176"/>
+        <c:crossAx val="2121721880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -533,7 +533,10 @@
                   <c:v>40.50000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.58333333333333</c:v>
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.250000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,11 +551,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2143302840"/>
-        <c:axId val="2143296712"/>
+        <c:axId val="2121749352"/>
+        <c:axId val="2121752376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143302840"/>
+        <c:axId val="2121749352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,12 +564,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143296712"/>
+        <c:crossAx val="2121752376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2143296712"/>
+        <c:axId val="2121752376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -578,7 +581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143302840"/>
+        <c:crossAx val="2121749352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2603,10 +2606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J161"/>
+  <dimension ref="B2:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2628,7 +2631,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>246.41666666666666</v>
+        <v>259.08333333333331</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -2644,7 +2647,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I9:I18)</f>
-        <v>27.379629629629633</v>
+        <v>25.908333333333339</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2660,7 +2663,7 @@
       </c>
       <c r="C7" s="4">
         <f>C4+hours!C4</f>
-        <v>360.65</v>
+        <v>373.31666666666661</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2716,7 +2719,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E160" si="0">(D11-C11)*24</f>
+        <f t="shared" ref="E11:E166" si="0">(D11-C11)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -2858,8 +2861,8 @@
         <v>23</v>
       </c>
       <c r="I17" s="4">
-        <f>SUM(E149:E160)</f>
-        <v>16.583333333333332</v>
+        <f>SUM(E149:E162)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -2877,7 +2880,10 @@
       <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4">
+        <f>SUM(E163:E177)</f>
+        <v>8.2500000000000018</v>
+      </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5">
@@ -4796,12 +4802,85 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="2:5">
       <c r="B161" s="5">
         <v>42958</v>
       </c>
       <c r="C161" s="2">
         <v>0.52430555555555558</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="E161" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666661</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="C162" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="E162" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7500000000000009</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="5">
+        <v>42961</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E163" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2499999999999991</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="C164" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E164" s="4">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999911</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="C165" s="2">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E165" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5833333333333375</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="5">
+        <v>42962</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E166" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1666666666666656</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -198,8 +198,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -225,7 +229,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -234,6 +238,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -242,6 +248,8 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,7 +544,7 @@
                   <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.250000000000001</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2606,10 +2614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J166"/>
+  <dimension ref="B2:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2631,7 +2639,7 @@
       </c>
       <c r="C4" s="4">
         <f>SUM(E:E)</f>
-        <v>259.08333333333331</v>
+        <v>270.58333333333331</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -2647,7 +2655,7 @@
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(I9:I18)</f>
-        <v>25.908333333333339</v>
+        <v>27.058333333333337</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -2663,7 +2671,7 @@
       </c>
       <c r="C7" s="4">
         <f>C4+hours!C4</f>
-        <v>373.31666666666661</v>
+        <v>384.81666666666661</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -2719,7 +2727,7 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" ref="E11:E166" si="0">(D11-C11)*24</f>
+        <f t="shared" ref="E11:E170" si="0">(D11-C11)*24</f>
         <v>2.4166666666666661</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -2882,7 +2890,7 @@
       </c>
       <c r="I18" s="4">
         <f>SUM(E163:E177)</f>
-        <v>8.2500000000000018</v>
+        <v>19.75</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -4876,11 +4884,62 @@
         <v>0.40972222222222227</v>
       </c>
       <c r="D166" s="2">
-        <v>0.5</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="E166" s="4">
         <f t="shared" si="0"/>
-        <v>2.1666666666666656</v>
+        <v>6.2499999999999982</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="C167" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="E167" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9166666666666661</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="5">
+        <v>42963</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E168" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="C169" s="2">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E169" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999911</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="C170" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E170" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999822</v>
       </c>
     </row>
   </sheetData>
